--- a/3_Lection/Знакомство_с_базами_данных_лекция_3.xlsx
+++ b/3_Lection/Знакомство_с_базами_данных_лекция_3.xlsx
@@ -11,7 +11,7 @@
     <sheet name="Аренда Структура записей" sheetId="2" r:id="rId2"/>
     <sheet name="Рабочая" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="125725"/>
   <extLst xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main">
     <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="200" uniqueCount="113">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="235" uniqueCount="113">
   <si>
     <t>Параметр</t>
   </si>
@@ -961,23 +961,23 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>21771</xdr:colOff>
       <xdr:row>3</xdr:row>
-      <xdr:rowOff>116417</xdr:rowOff>
+      <xdr:rowOff>94646</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>105834</xdr:rowOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>772886</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>130628</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
         <xdr:cNvPr id="3" name="Прямая соединительная линия 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{DF184FA6-7C88-8947-A6AF-1FE74CFFE2FD}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DF184FA6-7C88-8947-A6AF-1FE74CFFE2FD}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -985,8 +985,63 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="6963833" y="867834"/>
-          <a:ext cx="8318500" cy="1820333"/>
+          <a:off x="13443857" y="834875"/>
+          <a:ext cx="1578429" cy="4531782"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="12700">
+          <a:solidFill>
+            <a:srgbClr val="FFC000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>21773</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>119743</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>805543</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>97971</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="5" name="Прямая соединительная линия 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DF184FA6-7C88-8947-A6AF-1FE74CFFE2FD}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="6716487" y="859972"/>
+          <a:ext cx="1632856" cy="4267199"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -1306,7 +1361,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1314,10 +1369,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AI91"/>
+  <dimension ref="A1:AM91"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="G16" sqref="G16"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="J24" sqref="J24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6"/>
@@ -1326,15 +1381,16 @@
     <col min="2" max="3" width="15.19921875" customWidth="1"/>
     <col min="4" max="4" width="10.19921875" customWidth="1"/>
     <col min="5" max="5" width="8.69921875" customWidth="1"/>
-    <col min="6" max="6" width="31.5" customWidth="1"/>
-    <col min="8" max="10" width="10.796875" customWidth="1"/>
-    <col min="11" max="11" width="13.69921875" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="7" customWidth="1"/>
-    <col min="13" max="13" width="7.796875" customWidth="1"/>
-    <col min="14" max="14" width="32.19921875" customWidth="1"/>
+    <col min="6" max="6" width="33.5" customWidth="1"/>
+    <col min="12" max="12" width="32.5" customWidth="1"/>
+    <col min="13" max="14" width="10.796875" customWidth="1"/>
+    <col min="15" max="15" width="13.69921875" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="7" customWidth="1"/>
+    <col min="17" max="17" width="7.796875" customWidth="1"/>
+    <col min="18" max="18" width="32.19921875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:35">
+    <row r="1" spans="1:39">
       <c r="A1" s="2"/>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
@@ -1369,9 +1425,13 @@
       <c r="AF1" s="2"/>
       <c r="AG1" s="2"/>
       <c r="AH1" s="2"/>
-      <c r="AI1" s="3"/>
-    </row>
-    <row r="2" spans="1:35" ht="21.6" thickBot="1">
+      <c r="AI1" s="2"/>
+      <c r="AJ1" s="2"/>
+      <c r="AK1" s="2"/>
+      <c r="AL1" s="2"/>
+      <c r="AM1" s="3"/>
+    </row>
+    <row r="2" spans="1:39" ht="21.6" thickBot="1">
       <c r="A2" s="2"/>
       <c r="B2" s="4" t="s">
         <v>4</v>
@@ -1384,16 +1444,16 @@
       <c r="H2" s="6"/>
       <c r="I2" s="6"/>
       <c r="J2" s="6"/>
-      <c r="K2" s="4" t="s">
+      <c r="K2" s="6"/>
+      <c r="L2" s="6"/>
+      <c r="M2" s="6"/>
+      <c r="N2" s="6"/>
+      <c r="O2" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="L2" s="5"/>
-      <c r="M2" s="5"/>
-      <c r="N2" s="5"/>
-      <c r="O2" s="2"/>
-      <c r="P2" s="2"/>
-      <c r="Q2" s="2"/>
-      <c r="R2" s="2"/>
+      <c r="P2" s="5"/>
+      <c r="Q2" s="5"/>
+      <c r="R2" s="5"/>
       <c r="S2" s="2"/>
       <c r="T2" s="2"/>
       <c r="U2" s="2"/>
@@ -1410,9 +1470,13 @@
       <c r="AF2" s="2"/>
       <c r="AG2" s="2"/>
       <c r="AH2" s="2"/>
-      <c r="AI2" s="3"/>
-    </row>
-    <row r="3" spans="1:35" ht="21.6" thickTop="1">
+      <c r="AI2" s="2"/>
+      <c r="AJ2" s="2"/>
+      <c r="AK2" s="2"/>
+      <c r="AL2" s="2"/>
+      <c r="AM2" s="3"/>
+    </row>
+    <row r="3" spans="1:39" ht="21.6" thickTop="1">
       <c r="A3" s="7"/>
       <c r="B3" s="8" t="s">
         <v>0</v>
@@ -1430,26 +1494,26 @@
         <v>3</v>
       </c>
       <c r="G3" s="12"/>
-      <c r="H3" s="6"/>
-      <c r="I3" s="6"/>
-      <c r="J3" s="13"/>
-      <c r="K3" s="14" t="s">
+      <c r="H3" s="12"/>
+      <c r="I3" s="12"/>
+      <c r="J3" s="12"/>
+      <c r="K3" s="12"/>
+      <c r="L3" s="6"/>
+      <c r="M3" s="6"/>
+      <c r="N3" s="13"/>
+      <c r="O3" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="L3" s="15" t="s">
+      <c r="P3" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="M3" s="15" t="s">
+      <c r="Q3" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="N3" s="16" t="s">
+      <c r="R3" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="O3" s="17"/>
-      <c r="P3" s="2"/>
-      <c r="Q3" s="2"/>
-      <c r="R3" s="2"/>
-      <c r="S3" s="2"/>
+      <c r="S3" s="17"/>
       <c r="T3" s="2"/>
       <c r="U3" s="2"/>
       <c r="V3" s="2"/>
@@ -1465,9 +1529,13 @@
       <c r="AF3" s="2"/>
       <c r="AG3" s="2"/>
       <c r="AH3" s="2"/>
-      <c r="AI3" s="3"/>
-    </row>
-    <row r="4" spans="1:35">
+      <c r="AI3" s="2"/>
+      <c r="AJ3" s="2"/>
+      <c r="AK3" s="2"/>
+      <c r="AL3" s="2"/>
+      <c r="AM3" s="3"/>
+    </row>
+    <row r="4" spans="1:39">
       <c r="A4" s="7"/>
       <c r="B4" s="18" t="s">
         <v>26</v>
@@ -1485,26 +1553,26 @@
         <v>5</v>
       </c>
       <c r="G4" s="12"/>
-      <c r="H4" s="6"/>
-      <c r="I4" s="6"/>
-      <c r="J4" s="13"/>
-      <c r="K4" s="20" t="s">
+      <c r="H4" s="12"/>
+      <c r="I4" s="12"/>
+      <c r="J4" s="12"/>
+      <c r="K4" s="12"/>
+      <c r="L4" s="6"/>
+      <c r="M4" s="6"/>
+      <c r="N4" s="13"/>
+      <c r="O4" s="20" t="s">
         <v>27</v>
       </c>
-      <c r="L4" s="6" t="s">
+      <c r="P4" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="M4" s="6">
+      <c r="Q4" s="6">
         <v>10</v>
       </c>
-      <c r="N4" s="21" t="s">
+      <c r="R4" s="21" t="s">
         <v>28</v>
       </c>
-      <c r="O4" s="17"/>
-      <c r="P4" s="2"/>
-      <c r="Q4" s="2"/>
-      <c r="R4" s="2"/>
-      <c r="S4" s="2"/>
+      <c r="S4" s="17"/>
       <c r="T4" s="2"/>
       <c r="U4" s="2"/>
       <c r="V4" s="2"/>
@@ -1520,9 +1588,13 @@
       <c r="AF4" s="2"/>
       <c r="AG4" s="2"/>
       <c r="AH4" s="2"/>
-      <c r="AI4" s="3"/>
-    </row>
-    <row r="5" spans="1:35">
+      <c r="AI4" s="2"/>
+      <c r="AJ4" s="2"/>
+      <c r="AK4" s="2"/>
+      <c r="AL4" s="2"/>
+      <c r="AM4" s="3"/>
+    </row>
+    <row r="5" spans="1:39">
       <c r="A5" s="7"/>
       <c r="B5" s="18" t="s">
         <v>8</v>
@@ -1538,26 +1610,26 @@
         <v>7</v>
       </c>
       <c r="G5" s="12"/>
-      <c r="H5" s="6"/>
-      <c r="I5" s="6"/>
-      <c r="J5" s="13"/>
-      <c r="K5" s="20" t="s">
+      <c r="H5" s="12"/>
+      <c r="I5" s="12"/>
+      <c r="J5" s="12"/>
+      <c r="K5" s="12"/>
+      <c r="L5" s="6"/>
+      <c r="M5" s="6"/>
+      <c r="N5" s="13"/>
+      <c r="O5" s="20" t="s">
         <v>29</v>
       </c>
-      <c r="L5" s="6" t="s">
+      <c r="P5" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="M5" s="6">
+      <c r="Q5" s="6">
         <v>30</v>
       </c>
-      <c r="N5" s="21" t="s">
+      <c r="R5" s="21" t="s">
         <v>30</v>
       </c>
-      <c r="O5" s="17"/>
-      <c r="P5" s="2"/>
-      <c r="Q5" s="2"/>
-      <c r="R5" s="2"/>
-      <c r="S5" s="2"/>
+      <c r="S5" s="17"/>
       <c r="T5" s="2"/>
       <c r="U5" s="2"/>
       <c r="V5" s="2"/>
@@ -1573,9 +1645,13 @@
       <c r="AF5" s="2"/>
       <c r="AG5" s="2"/>
       <c r="AH5" s="2"/>
-      <c r="AI5" s="3"/>
-    </row>
-    <row r="6" spans="1:35">
+      <c r="AI5" s="2"/>
+      <c r="AJ5" s="2"/>
+      <c r="AK5" s="2"/>
+      <c r="AL5" s="2"/>
+      <c r="AM5" s="3"/>
+    </row>
+    <row r="6" spans="1:39">
       <c r="A6" s="7"/>
       <c r="B6" s="18" t="s">
         <v>9</v>
@@ -1591,26 +1667,26 @@
         <v>10</v>
       </c>
       <c r="G6" s="12"/>
-      <c r="H6" s="6"/>
-      <c r="I6" s="6"/>
-      <c r="J6" s="13"/>
-      <c r="K6" s="20" t="s">
+      <c r="H6" s="12"/>
+      <c r="I6" s="12"/>
+      <c r="J6" s="12"/>
+      <c r="K6" s="12"/>
+      <c r="L6" s="6"/>
+      <c r="M6" s="6"/>
+      <c r="N6" s="13"/>
+      <c r="O6" s="20" t="s">
         <v>31</v>
       </c>
-      <c r="L6" s="6" t="s">
+      <c r="P6" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="M6" s="6">
+      <c r="Q6" s="6">
         <v>30</v>
       </c>
-      <c r="N6" s="21" t="s">
+      <c r="R6" s="21" t="s">
         <v>32</v>
       </c>
-      <c r="O6" s="17"/>
-      <c r="P6" s="2"/>
-      <c r="Q6" s="2"/>
-      <c r="R6" s="2"/>
-      <c r="S6" s="2"/>
+      <c r="S6" s="17"/>
       <c r="T6" s="2"/>
       <c r="U6" s="2"/>
       <c r="V6" s="2"/>
@@ -1626,9 +1702,13 @@
       <c r="AF6" s="2"/>
       <c r="AG6" s="2"/>
       <c r="AH6" s="2"/>
-      <c r="AI6" s="3"/>
-    </row>
-    <row r="7" spans="1:35">
+      <c r="AI6" s="2"/>
+      <c r="AJ6" s="2"/>
+      <c r="AK6" s="2"/>
+      <c r="AL6" s="2"/>
+      <c r="AM6" s="3"/>
+    </row>
+    <row r="7" spans="1:39">
       <c r="A7" s="7"/>
       <c r="B7" s="18" t="s">
         <v>11</v>
@@ -1644,26 +1724,26 @@
         <v>12</v>
       </c>
       <c r="G7" s="12"/>
-      <c r="H7" s="6"/>
-      <c r="I7" s="6"/>
-      <c r="J7" s="13"/>
-      <c r="K7" s="20" t="s">
+      <c r="H7" s="12"/>
+      <c r="I7" s="12"/>
+      <c r="J7" s="12"/>
+      <c r="K7" s="12"/>
+      <c r="L7" s="6"/>
+      <c r="M7" s="6"/>
+      <c r="N7" s="13"/>
+      <c r="O7" s="20" t="s">
         <v>33</v>
       </c>
-      <c r="L7" s="6" t="s">
+      <c r="P7" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="M7" s="6">
+      <c r="Q7" s="6">
         <v>30</v>
       </c>
-      <c r="N7" s="21" t="s">
+      <c r="R7" s="21" t="s">
         <v>36</v>
       </c>
-      <c r="O7" s="17"/>
-      <c r="P7" s="2"/>
-      <c r="Q7" s="2"/>
-      <c r="R7" s="2"/>
-      <c r="S7" s="2"/>
+      <c r="S7" s="17"/>
       <c r="T7" s="2"/>
       <c r="U7" s="2"/>
       <c r="V7" s="2"/>
@@ -1679,9 +1759,13 @@
       <c r="AF7" s="2"/>
       <c r="AG7" s="2"/>
       <c r="AH7" s="2"/>
-      <c r="AI7" s="3"/>
-    </row>
-    <row r="8" spans="1:35">
+      <c r="AI7" s="2"/>
+      <c r="AJ7" s="2"/>
+      <c r="AK7" s="2"/>
+      <c r="AL7" s="2"/>
+      <c r="AM7" s="3"/>
+    </row>
+    <row r="8" spans="1:39">
       <c r="A8" s="7"/>
       <c r="B8" s="18" t="s">
         <v>13</v>
@@ -1697,26 +1781,26 @@
         <v>14</v>
       </c>
       <c r="G8" s="12"/>
-      <c r="H8" s="6"/>
-      <c r="I8" s="6"/>
-      <c r="J8" s="13"/>
-      <c r="K8" s="20" t="s">
+      <c r="H8" s="12"/>
+      <c r="I8" s="12"/>
+      <c r="J8" s="12"/>
+      <c r="K8" s="12"/>
+      <c r="L8" s="6"/>
+      <c r="M8" s="6"/>
+      <c r="N8" s="13"/>
+      <c r="O8" s="20" t="s">
         <v>34</v>
       </c>
-      <c r="L8" s="6" t="s">
+      <c r="P8" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="M8" s="6">
+      <c r="Q8" s="6">
         <v>8</v>
       </c>
-      <c r="N8" s="21" t="s">
+      <c r="R8" s="21" t="s">
         <v>35</v>
       </c>
-      <c r="O8" s="17"/>
-      <c r="P8" s="2"/>
-      <c r="Q8" s="2"/>
-      <c r="R8" s="2"/>
-      <c r="S8" s="2"/>
+      <c r="S8" s="17"/>
       <c r="T8" s="2"/>
       <c r="U8" s="2"/>
       <c r="V8" s="2"/>
@@ -1732,9 +1816,13 @@
       <c r="AF8" s="2"/>
       <c r="AG8" s="2"/>
       <c r="AH8" s="2"/>
-      <c r="AI8" s="3"/>
-    </row>
-    <row r="9" spans="1:35">
+      <c r="AI8" s="2"/>
+      <c r="AJ8" s="2"/>
+      <c r="AK8" s="2"/>
+      <c r="AL8" s="2"/>
+      <c r="AM8" s="3"/>
+    </row>
+    <row r="9" spans="1:39">
       <c r="A9" s="7"/>
       <c r="B9" s="18" t="s">
         <v>16</v>
@@ -1750,26 +1838,26 @@
         <v>17</v>
       </c>
       <c r="G9" s="12"/>
-      <c r="H9" s="6"/>
-      <c r="I9" s="6"/>
-      <c r="J9" s="13"/>
-      <c r="K9" s="20" t="s">
+      <c r="H9" s="12"/>
+      <c r="I9" s="12"/>
+      <c r="J9" s="12"/>
+      <c r="K9" s="12"/>
+      <c r="L9" s="6"/>
+      <c r="M9" s="6"/>
+      <c r="N9" s="13"/>
+      <c r="O9" s="20" t="s">
         <v>37</v>
       </c>
-      <c r="L9" s="6" t="s">
+      <c r="P9" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="M9" s="6">
+      <c r="Q9" s="6">
         <v>10</v>
       </c>
-      <c r="N9" s="21" t="s">
+      <c r="R9" s="21" t="s">
         <v>40</v>
       </c>
-      <c r="O9" s="17"/>
-      <c r="P9" s="2"/>
-      <c r="Q9" s="2"/>
-      <c r="R9" s="2"/>
-      <c r="S9" s="2"/>
+      <c r="S9" s="17"/>
       <c r="T9" s="2"/>
       <c r="U9" s="2"/>
       <c r="V9" s="2"/>
@@ -1785,9 +1873,13 @@
       <c r="AF9" s="2"/>
       <c r="AG9" s="2"/>
       <c r="AH9" s="2"/>
-      <c r="AI9" s="3"/>
-    </row>
-    <row r="10" spans="1:35">
+      <c r="AI9" s="2"/>
+      <c r="AJ9" s="2"/>
+      <c r="AK9" s="2"/>
+      <c r="AL9" s="2"/>
+      <c r="AM9" s="3"/>
+    </row>
+    <row r="10" spans="1:39">
       <c r="A10" s="7"/>
       <c r="B10" s="18" t="s">
         <v>15</v>
@@ -1803,26 +1895,26 @@
         <v>18</v>
       </c>
       <c r="G10" s="12"/>
-      <c r="H10" s="6"/>
-      <c r="I10" s="6"/>
-      <c r="J10" s="13"/>
-      <c r="K10" s="20" t="s">
+      <c r="H10" s="12"/>
+      <c r="I10" s="12"/>
+      <c r="J10" s="12"/>
+      <c r="K10" s="12"/>
+      <c r="L10" s="6"/>
+      <c r="M10" s="6"/>
+      <c r="N10" s="13"/>
+      <c r="O10" s="20" t="s">
         <v>38</v>
       </c>
-      <c r="L10" s="6" t="s">
+      <c r="P10" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="M10" s="6">
+      <c r="Q10" s="6">
         <v>20</v>
       </c>
-      <c r="N10" s="21" t="s">
+      <c r="R10" s="21" t="s">
         <v>39</v>
       </c>
-      <c r="O10" s="17"/>
-      <c r="P10" s="2"/>
-      <c r="Q10" s="2"/>
-      <c r="R10" s="2"/>
-      <c r="S10" s="2"/>
+      <c r="S10" s="17"/>
       <c r="T10" s="2"/>
       <c r="U10" s="2"/>
       <c r="V10" s="2"/>
@@ -1838,9 +1930,13 @@
       <c r="AF10" s="2"/>
       <c r="AG10" s="2"/>
       <c r="AH10" s="2"/>
-      <c r="AI10" s="3"/>
-    </row>
-    <row r="11" spans="1:35" ht="16.2" thickBot="1">
+      <c r="AI10" s="2"/>
+      <c r="AJ10" s="2"/>
+      <c r="AK10" s="2"/>
+      <c r="AL10" s="2"/>
+      <c r="AM10" s="3"/>
+    </row>
+    <row r="11" spans="1:39" ht="16.2" thickBot="1">
       <c r="A11" s="7"/>
       <c r="B11" s="18" t="s">
         <v>19</v>
@@ -1856,26 +1952,26 @@
         <v>20</v>
       </c>
       <c r="G11" s="12"/>
-      <c r="H11" s="6"/>
-      <c r="I11" s="6"/>
-      <c r="J11" s="6"/>
-      <c r="K11" s="22" t="s">
+      <c r="H11" s="12"/>
+      <c r="I11" s="12"/>
+      <c r="J11" s="12"/>
+      <c r="K11" s="12"/>
+      <c r="L11" s="6"/>
+      <c r="M11" s="6"/>
+      <c r="N11" s="6"/>
+      <c r="O11" s="22" t="s">
         <v>41</v>
       </c>
-      <c r="L11" s="23" t="s">
+      <c r="P11" s="23" t="s">
         <v>6</v>
       </c>
-      <c r="M11" s="23">
+      <c r="Q11" s="23">
         <v>1</v>
       </c>
-      <c r="N11" s="24" t="s">
+      <c r="R11" s="24" t="s">
         <v>42</v>
       </c>
-      <c r="O11" s="17"/>
-      <c r="P11" s="2"/>
-      <c r="Q11" s="2"/>
-      <c r="R11" s="2"/>
-      <c r="S11" s="2"/>
+      <c r="S11" s="17"/>
       <c r="T11" s="2"/>
       <c r="U11" s="2"/>
       <c r="V11" s="2"/>
@@ -1891,9 +1987,13 @@
       <c r="AF11" s="2"/>
       <c r="AG11" s="2"/>
       <c r="AH11" s="2"/>
-      <c r="AI11" s="3"/>
-    </row>
-    <row r="12" spans="1:35" ht="16.2" thickTop="1">
+      <c r="AI11" s="2"/>
+      <c r="AJ11" s="2"/>
+      <c r="AK11" s="2"/>
+      <c r="AL11" s="2"/>
+      <c r="AM11" s="3"/>
+    </row>
+    <row r="12" spans="1:39" ht="16.2" thickTop="1">
       <c r="A12" s="7"/>
       <c r="B12" s="25" t="s">
         <v>111</v>
@@ -1909,17 +2009,17 @@
         <v>112</v>
       </c>
       <c r="G12" s="12"/>
-      <c r="H12" s="6"/>
-      <c r="I12" s="6"/>
-      <c r="J12" s="6"/>
-      <c r="K12" s="29"/>
-      <c r="L12" s="29"/>
-      <c r="M12" s="29"/>
-      <c r="N12" s="29"/>
-      <c r="O12" s="2"/>
-      <c r="P12" s="2"/>
-      <c r="Q12" s="2"/>
-      <c r="R12" s="2"/>
+      <c r="H12" s="12"/>
+      <c r="I12" s="12"/>
+      <c r="J12" s="12"/>
+      <c r="K12" s="12"/>
+      <c r="L12" s="6"/>
+      <c r="M12" s="6"/>
+      <c r="N12" s="6"/>
+      <c r="O12" s="29"/>
+      <c r="P12" s="29"/>
+      <c r="Q12" s="29"/>
+      <c r="R12" s="29"/>
       <c r="S12" s="2"/>
       <c r="T12" s="2"/>
       <c r="U12" s="2"/>
@@ -1936,35 +2036,31 @@
       <c r="AF12" s="2"/>
       <c r="AG12" s="2"/>
       <c r="AH12" s="2"/>
-      <c r="AI12" s="3"/>
-    </row>
-    <row r="13" spans="1:35">
+      <c r="AI12" s="2"/>
+      <c r="AJ12" s="2"/>
+      <c r="AK12" s="2"/>
+      <c r="AL12" s="2"/>
+      <c r="AM12" s="3"/>
+    </row>
+    <row r="13" spans="1:39">
       <c r="A13" s="7"/>
-      <c r="B13" s="18" t="s">
-        <v>43</v>
-      </c>
+      <c r="B13" s="18"/>
       <c r="C13" s="6"/>
-      <c r="D13" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="E13" s="6">
-        <v>10</v>
-      </c>
-      <c r="F13" s="19" t="s">
-        <v>63</v>
-      </c>
+      <c r="D13" s="6"/>
+      <c r="E13" s="6"/>
+      <c r="F13" s="19"/>
       <c r="G13" s="12"/>
-      <c r="H13" s="6"/>
-      <c r="I13" s="6"/>
-      <c r="J13" s="6"/>
-      <c r="K13" s="6"/>
+      <c r="H13" s="12"/>
+      <c r="I13" s="12"/>
+      <c r="J13" s="12"/>
+      <c r="K13" s="12"/>
       <c r="L13" s="6"/>
       <c r="M13" s="6"/>
       <c r="N13" s="6"/>
-      <c r="O13" s="2"/>
-      <c r="P13" s="2"/>
-      <c r="Q13" s="2"/>
-      <c r="R13" s="2"/>
+      <c r="O13" s="6"/>
+      <c r="P13" s="6"/>
+      <c r="Q13" s="6"/>
+      <c r="R13" s="6"/>
       <c r="S13" s="2"/>
       <c r="T13" s="2"/>
       <c r="U13" s="2"/>
@@ -1981,9 +2077,13 @@
       <c r="AF13" s="2"/>
       <c r="AG13" s="2"/>
       <c r="AH13" s="2"/>
-      <c r="AI13" s="3"/>
-    </row>
-    <row r="14" spans="1:35">
+      <c r="AI13" s="2"/>
+      <c r="AJ13" s="2"/>
+      <c r="AK13" s="2"/>
+      <c r="AL13" s="2"/>
+      <c r="AM13" s="3"/>
+    </row>
+    <row r="14" spans="1:39" ht="21.6" thickBot="1">
       <c r="A14" s="7"/>
       <c r="B14" s="30"/>
       <c r="C14" s="31"/>
@@ -1991,17 +2091,19 @@
       <c r="E14" s="29"/>
       <c r="F14" s="32"/>
       <c r="G14" s="12"/>
-      <c r="H14" s="6"/>
-      <c r="I14" s="6"/>
-      <c r="J14" s="6"/>
-      <c r="K14" s="6"/>
-      <c r="L14" s="6"/>
+      <c r="H14" s="12"/>
+      <c r="I14" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="J14" s="5"/>
+      <c r="K14" s="5"/>
+      <c r="L14" s="5"/>
       <c r="M14" s="6"/>
       <c r="N14" s="6"/>
-      <c r="O14" s="2"/>
-      <c r="P14" s="2"/>
-      <c r="Q14" s="2"/>
-      <c r="R14" s="2"/>
+      <c r="O14" s="6"/>
+      <c r="P14" s="6"/>
+      <c r="Q14" s="6"/>
+      <c r="R14" s="6"/>
       <c r="S14" s="2"/>
       <c r="T14" s="2"/>
       <c r="U14" s="2"/>
@@ -2018,9 +2120,13 @@
       <c r="AF14" s="2"/>
       <c r="AG14" s="2"/>
       <c r="AH14" s="2"/>
-      <c r="AI14" s="3"/>
-    </row>
-    <row r="15" spans="1:35">
+      <c r="AI14" s="2"/>
+      <c r="AJ14" s="2"/>
+      <c r="AK14" s="2"/>
+      <c r="AL14" s="2"/>
+      <c r="AM14" s="3"/>
+    </row>
+    <row r="15" spans="1:39" ht="21">
       <c r="A15" s="7"/>
       <c r="B15" s="18"/>
       <c r="C15" s="12"/>
@@ -2028,17 +2134,25 @@
       <c r="E15" s="6"/>
       <c r="F15" s="19"/>
       <c r="G15" s="12"/>
-      <c r="H15" s="6"/>
-      <c r="I15" s="6"/>
-      <c r="J15" s="6"/>
-      <c r="K15" s="6"/>
-      <c r="L15" s="6"/>
+      <c r="H15" s="12"/>
+      <c r="I15" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="J15" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="K15" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="L15" s="11" t="s">
+        <v>3</v>
+      </c>
       <c r="M15" s="6"/>
       <c r="N15" s="6"/>
-      <c r="O15" s="2"/>
-      <c r="P15" s="2"/>
-      <c r="Q15" s="2"/>
-      <c r="R15" s="2"/>
+      <c r="O15" s="6"/>
+      <c r="P15" s="6"/>
+      <c r="Q15" s="6"/>
+      <c r="R15" s="6"/>
       <c r="S15" s="2"/>
       <c r="T15" s="2"/>
       <c r="U15" s="2"/>
@@ -2055,9 +2169,13 @@
       <c r="AF15" s="2"/>
       <c r="AG15" s="2"/>
       <c r="AH15" s="2"/>
-      <c r="AI15" s="3"/>
-    </row>
-    <row r="16" spans="1:35">
+      <c r="AI15" s="2"/>
+      <c r="AJ15" s="2"/>
+      <c r="AK15" s="2"/>
+      <c r="AL15" s="2"/>
+      <c r="AM15" s="3"/>
+    </row>
+    <row r="16" spans="1:39">
       <c r="A16" s="7"/>
       <c r="B16" s="18"/>
       <c r="C16" s="12"/>
@@ -2065,17 +2183,25 @@
       <c r="E16" s="6"/>
       <c r="F16" s="19"/>
       <c r="G16" s="12"/>
-      <c r="H16" s="6"/>
-      <c r="I16" s="6"/>
-      <c r="J16" s="6"/>
-      <c r="K16" s="6"/>
-      <c r="L16" s="6"/>
+      <c r="H16" s="12"/>
+      <c r="I16" s="18" t="s">
+        <v>46</v>
+      </c>
+      <c r="J16" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="K16" s="6">
+        <v>10</v>
+      </c>
+      <c r="L16" s="19" t="s">
+        <v>55</v>
+      </c>
       <c r="M16" s="6"/>
       <c r="N16" s="6"/>
-      <c r="O16" s="2"/>
-      <c r="P16" s="2"/>
-      <c r="Q16" s="2"/>
-      <c r="R16" s="2"/>
+      <c r="O16" s="6"/>
+      <c r="P16" s="6"/>
+      <c r="Q16" s="6"/>
+      <c r="R16" s="6"/>
       <c r="S16" s="2"/>
       <c r="T16" s="2"/>
       <c r="U16" s="2"/>
@@ -2092,9 +2218,13 @@
       <c r="AF16" s="2"/>
       <c r="AG16" s="2"/>
       <c r="AH16" s="2"/>
-      <c r="AI16" s="3"/>
-    </row>
-    <row r="17" spans="1:35">
+      <c r="AI16" s="2"/>
+      <c r="AJ16" s="2"/>
+      <c r="AK16" s="2"/>
+      <c r="AL16" s="2"/>
+      <c r="AM16" s="3"/>
+    </row>
+    <row r="17" spans="1:39">
       <c r="A17" s="7"/>
       <c r="B17" s="18"/>
       <c r="C17" s="12"/>
@@ -2102,17 +2232,25 @@
       <c r="E17" s="6"/>
       <c r="F17" s="19"/>
       <c r="G17" s="12"/>
-      <c r="H17" s="6"/>
-      <c r="I17" s="6"/>
-      <c r="J17" s="6"/>
-      <c r="K17" s="6"/>
-      <c r="L17" s="6"/>
+      <c r="H17" s="12"/>
+      <c r="I17" s="18" t="s">
+        <v>47</v>
+      </c>
+      <c r="J17" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="K17" s="6">
+        <v>10</v>
+      </c>
+      <c r="L17" s="19" t="s">
+        <v>56</v>
+      </c>
       <c r="M17" s="6"/>
       <c r="N17" s="6"/>
-      <c r="O17" s="2"/>
-      <c r="P17" s="2"/>
-      <c r="Q17" s="2"/>
-      <c r="R17" s="2"/>
+      <c r="O17" s="6"/>
+      <c r="P17" s="6"/>
+      <c r="Q17" s="6"/>
+      <c r="R17" s="6"/>
       <c r="S17" s="2"/>
       <c r="T17" s="2"/>
       <c r="U17" s="2"/>
@@ -2129,9 +2267,13 @@
       <c r="AF17" s="2"/>
       <c r="AG17" s="2"/>
       <c r="AH17" s="2"/>
-      <c r="AI17" s="3"/>
-    </row>
-    <row r="18" spans="1:35">
+      <c r="AI17" s="2"/>
+      <c r="AJ17" s="2"/>
+      <c r="AK17" s="2"/>
+      <c r="AL17" s="2"/>
+      <c r="AM17" s="3"/>
+    </row>
+    <row r="18" spans="1:39">
       <c r="A18" s="7"/>
       <c r="B18" s="18"/>
       <c r="C18" s="12"/>
@@ -2139,17 +2281,25 @@
       <c r="E18" s="6"/>
       <c r="F18" s="19"/>
       <c r="G18" s="12"/>
-      <c r="H18" s="6"/>
-      <c r="I18" s="6"/>
-      <c r="J18" s="6"/>
-      <c r="K18" s="6"/>
-      <c r="L18" s="6"/>
+      <c r="H18" s="12"/>
+      <c r="I18" s="18" t="s">
+        <v>48</v>
+      </c>
+      <c r="J18" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="K18" s="6">
+        <v>16</v>
+      </c>
+      <c r="L18" s="19" t="s">
+        <v>57</v>
+      </c>
       <c r="M18" s="6"/>
       <c r="N18" s="6"/>
-      <c r="O18" s="2"/>
-      <c r="P18" s="2"/>
-      <c r="Q18" s="2"/>
-      <c r="R18" s="2"/>
+      <c r="O18" s="6"/>
+      <c r="P18" s="6"/>
+      <c r="Q18" s="6"/>
+      <c r="R18" s="6"/>
       <c r="S18" s="2"/>
       <c r="T18" s="2"/>
       <c r="U18" s="2"/>
@@ -2166,9 +2316,13 @@
       <c r="AF18" s="2"/>
       <c r="AG18" s="2"/>
       <c r="AH18" s="2"/>
-      <c r="AI18" s="3"/>
-    </row>
-    <row r="19" spans="1:35">
+      <c r="AI18" s="2"/>
+      <c r="AJ18" s="2"/>
+      <c r="AK18" s="2"/>
+      <c r="AL18" s="2"/>
+      <c r="AM18" s="3"/>
+    </row>
+    <row r="19" spans="1:39">
       <c r="A19" s="7"/>
       <c r="B19" s="18"/>
       <c r="C19" s="12"/>
@@ -2176,17 +2330,25 @@
       <c r="E19" s="6"/>
       <c r="F19" s="19"/>
       <c r="G19" s="12"/>
-      <c r="H19" s="6"/>
-      <c r="I19" s="6"/>
-      <c r="J19" s="6"/>
-      <c r="K19" s="6"/>
-      <c r="L19" s="6"/>
+      <c r="H19" s="12"/>
+      <c r="I19" s="18" t="s">
+        <v>11</v>
+      </c>
+      <c r="J19" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="K19" s="6">
+        <v>12</v>
+      </c>
+      <c r="L19" s="19" t="s">
+        <v>12</v>
+      </c>
       <c r="M19" s="6"/>
       <c r="N19" s="6"/>
-      <c r="O19" s="2"/>
-      <c r="P19" s="2"/>
-      <c r="Q19" s="2"/>
-      <c r="R19" s="2"/>
+      <c r="O19" s="6"/>
+      <c r="P19" s="6"/>
+      <c r="Q19" s="6"/>
+      <c r="R19" s="6"/>
       <c r="S19" s="2"/>
       <c r="T19" s="2"/>
       <c r="U19" s="2"/>
@@ -2203,9 +2365,13 @@
       <c r="AF19" s="2"/>
       <c r="AG19" s="2"/>
       <c r="AH19" s="2"/>
-      <c r="AI19" s="3"/>
-    </row>
-    <row r="20" spans="1:35">
+      <c r="AI19" s="2"/>
+      <c r="AJ19" s="2"/>
+      <c r="AK19" s="2"/>
+      <c r="AL19" s="2"/>
+      <c r="AM19" s="3"/>
+    </row>
+    <row r="20" spans="1:39">
       <c r="A20" s="7"/>
       <c r="B20" s="18"/>
       <c r="C20" s="12"/>
@@ -2213,17 +2379,25 @@
       <c r="E20" s="6"/>
       <c r="F20" s="19"/>
       <c r="G20" s="12"/>
-      <c r="H20" s="6"/>
-      <c r="I20" s="6"/>
-      <c r="J20" s="6"/>
-      <c r="K20" s="6"/>
-      <c r="L20" s="6"/>
+      <c r="H20" s="12"/>
+      <c r="I20" s="18" t="s">
+        <v>49</v>
+      </c>
+      <c r="J20" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="K20" s="6">
+        <v>8</v>
+      </c>
+      <c r="L20" s="19" t="s">
+        <v>58</v>
+      </c>
       <c r="M20" s="6"/>
       <c r="N20" s="6"/>
-      <c r="O20" s="2"/>
-      <c r="P20" s="2"/>
-      <c r="Q20" s="2"/>
-      <c r="R20" s="2"/>
+      <c r="O20" s="6"/>
+      <c r="P20" s="6"/>
+      <c r="Q20" s="6"/>
+      <c r="R20" s="6"/>
       <c r="S20" s="2"/>
       <c r="T20" s="2"/>
       <c r="U20" s="2"/>
@@ -2240,9 +2414,13 @@
       <c r="AF20" s="2"/>
       <c r="AG20" s="2"/>
       <c r="AH20" s="2"/>
-      <c r="AI20" s="3"/>
-    </row>
-    <row r="21" spans="1:35">
+      <c r="AI20" s="2"/>
+      <c r="AJ20" s="2"/>
+      <c r="AK20" s="2"/>
+      <c r="AL20" s="2"/>
+      <c r="AM20" s="3"/>
+    </row>
+    <row r="21" spans="1:39">
       <c r="A21" s="7"/>
       <c r="B21" s="18"/>
       <c r="C21" s="12"/>
@@ -2250,17 +2428,25 @@
       <c r="E21" s="6"/>
       <c r="F21" s="19"/>
       <c r="G21" s="12"/>
-      <c r="H21" s="6"/>
-      <c r="I21" s="6"/>
-      <c r="J21" s="6"/>
-      <c r="K21" s="6"/>
-      <c r="L21" s="6"/>
+      <c r="H21" s="12"/>
+      <c r="I21" s="18" t="s">
+        <v>50</v>
+      </c>
+      <c r="J21" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="K21" s="6">
+        <v>8</v>
+      </c>
+      <c r="L21" s="19" t="s">
+        <v>59</v>
+      </c>
       <c r="M21" s="6"/>
       <c r="N21" s="6"/>
-      <c r="O21" s="2"/>
-      <c r="P21" s="2"/>
-      <c r="Q21" s="2"/>
-      <c r="R21" s="2"/>
+      <c r="O21" s="6"/>
+      <c r="P21" s="6"/>
+      <c r="Q21" s="6"/>
+      <c r="R21" s="6"/>
       <c r="S21" s="2"/>
       <c r="T21" s="2"/>
       <c r="U21" s="2"/>
@@ -2277,9 +2463,13 @@
       <c r="AF21" s="2"/>
       <c r="AG21" s="2"/>
       <c r="AH21" s="2"/>
-      <c r="AI21" s="3"/>
-    </row>
-    <row r="22" spans="1:35">
+      <c r="AI21" s="2"/>
+      <c r="AJ21" s="2"/>
+      <c r="AK21" s="2"/>
+      <c r="AL21" s="2"/>
+      <c r="AM21" s="3"/>
+    </row>
+    <row r="22" spans="1:39">
       <c r="A22" s="7"/>
       <c r="B22" s="18"/>
       <c r="C22" s="12"/>
@@ -2287,17 +2477,25 @@
       <c r="E22" s="6"/>
       <c r="F22" s="19"/>
       <c r="G22" s="12"/>
-      <c r="H22" s="6"/>
-      <c r="I22" s="6"/>
-      <c r="J22" s="6"/>
-      <c r="K22" s="6"/>
-      <c r="L22" s="6"/>
+      <c r="H22" s="12"/>
+      <c r="I22" s="18" t="s">
+        <v>51</v>
+      </c>
+      <c r="J22" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="K22" s="6">
+        <v>12</v>
+      </c>
+      <c r="L22" s="19" t="s">
+        <v>60</v>
+      </c>
       <c r="M22" s="6"/>
       <c r="N22" s="6"/>
-      <c r="O22" s="2"/>
-      <c r="P22" s="2"/>
-      <c r="Q22" s="2"/>
-      <c r="R22" s="2"/>
+      <c r="O22" s="6"/>
+      <c r="P22" s="6"/>
+      <c r="Q22" s="6"/>
+      <c r="R22" s="6"/>
       <c r="S22" s="2"/>
       <c r="T22" s="2"/>
       <c r="U22" s="2"/>
@@ -2314,9 +2512,13 @@
       <c r="AF22" s="2"/>
       <c r="AG22" s="2"/>
       <c r="AH22" s="2"/>
-      <c r="AI22" s="3"/>
-    </row>
-    <row r="23" spans="1:35">
+      <c r="AI22" s="2"/>
+      <c r="AJ22" s="2"/>
+      <c r="AK22" s="2"/>
+      <c r="AL22" s="2"/>
+      <c r="AM22" s="3"/>
+    </row>
+    <row r="23" spans="1:39">
       <c r="A23" s="7"/>
       <c r="B23" s="18"/>
       <c r="C23" s="12"/>
@@ -2324,17 +2526,25 @@
       <c r="E23" s="6"/>
       <c r="F23" s="19"/>
       <c r="G23" s="12"/>
-      <c r="H23" s="6"/>
-      <c r="I23" s="6"/>
-      <c r="J23" s="6"/>
-      <c r="K23" s="6"/>
-      <c r="L23" s="6"/>
+      <c r="H23" s="12"/>
+      <c r="I23" s="18" t="s">
+        <v>52</v>
+      </c>
+      <c r="J23" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="K23" s="6">
+        <v>12</v>
+      </c>
+      <c r="L23" s="19" t="s">
+        <v>61</v>
+      </c>
       <c r="M23" s="6"/>
       <c r="N23" s="6"/>
-      <c r="O23" s="2"/>
-      <c r="P23" s="2"/>
-      <c r="Q23" s="2"/>
-      <c r="R23" s="2"/>
+      <c r="O23" s="6"/>
+      <c r="P23" s="6"/>
+      <c r="Q23" s="6"/>
+      <c r="R23" s="6"/>
       <c r="S23" s="2"/>
       <c r="T23" s="2"/>
       <c r="U23" s="2"/>
@@ -2351,9 +2561,13 @@
       <c r="AF23" s="2"/>
       <c r="AG23" s="2"/>
       <c r="AH23" s="2"/>
-      <c r="AI23" s="3"/>
-    </row>
-    <row r="24" spans="1:35">
+      <c r="AI23" s="2"/>
+      <c r="AJ23" s="2"/>
+      <c r="AK23" s="2"/>
+      <c r="AL23" s="2"/>
+      <c r="AM23" s="3"/>
+    </row>
+    <row r="24" spans="1:39">
       <c r="A24" s="7"/>
       <c r="B24" s="18"/>
       <c r="C24" s="12"/>
@@ -2361,17 +2575,25 @@
       <c r="E24" s="6"/>
       <c r="F24" s="19"/>
       <c r="G24" s="12"/>
-      <c r="H24" s="6"/>
-      <c r="I24" s="6"/>
-      <c r="J24" s="6"/>
-      <c r="K24" s="6"/>
-      <c r="L24" s="6"/>
+      <c r="H24" s="12"/>
+      <c r="I24" s="30" t="s">
+        <v>53</v>
+      </c>
+      <c r="J24" s="29" t="s">
+        <v>44</v>
+      </c>
+      <c r="K24" s="29">
+        <v>10</v>
+      </c>
+      <c r="L24" s="19" t="s">
+        <v>62</v>
+      </c>
       <c r="M24" s="6"/>
       <c r="N24" s="6"/>
-      <c r="O24" s="2"/>
-      <c r="P24" s="2"/>
-      <c r="Q24" s="2"/>
-      <c r="R24" s="2"/>
+      <c r="O24" s="6"/>
+      <c r="P24" s="6"/>
+      <c r="Q24" s="6"/>
+      <c r="R24" s="6"/>
       <c r="S24" s="2"/>
       <c r="T24" s="2"/>
       <c r="U24" s="2"/>
@@ -2388,9 +2610,13 @@
       <c r="AF24" s="2"/>
       <c r="AG24" s="2"/>
       <c r="AH24" s="2"/>
-      <c r="AI24" s="3"/>
-    </row>
-    <row r="25" spans="1:35" ht="16.2" thickBot="1">
+      <c r="AI24" s="2"/>
+      <c r="AJ24" s="2"/>
+      <c r="AK24" s="2"/>
+      <c r="AL24" s="2"/>
+      <c r="AM24" s="3"/>
+    </row>
+    <row r="25" spans="1:39" ht="16.2" thickBot="1">
       <c r="A25" s="7"/>
       <c r="B25" s="33"/>
       <c r="C25" s="34"/>
@@ -2398,17 +2624,25 @@
       <c r="E25" s="35"/>
       <c r="F25" s="36"/>
       <c r="G25" s="12"/>
-      <c r="H25" s="6"/>
-      <c r="I25" s="6"/>
-      <c r="J25" s="6"/>
-      <c r="K25" s="6"/>
-      <c r="L25" s="6"/>
+      <c r="H25" s="12"/>
+      <c r="I25" s="18" t="s">
+        <v>54</v>
+      </c>
+      <c r="J25" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="K25" s="6">
+        <v>10</v>
+      </c>
+      <c r="L25" s="19" t="s">
+        <v>5</v>
+      </c>
       <c r="M25" s="6"/>
       <c r="N25" s="6"/>
-      <c r="O25" s="2"/>
-      <c r="P25" s="2"/>
-      <c r="Q25" s="2"/>
-      <c r="R25" s="2"/>
+      <c r="O25" s="6"/>
+      <c r="P25" s="6"/>
+      <c r="Q25" s="6"/>
+      <c r="R25" s="6"/>
       <c r="S25" s="2"/>
       <c r="T25" s="2"/>
       <c r="U25" s="2"/>
@@ -2425,9 +2659,13 @@
       <c r="AF25" s="2"/>
       <c r="AG25" s="2"/>
       <c r="AH25" s="2"/>
-      <c r="AI25" s="3"/>
-    </row>
-    <row r="26" spans="1:35">
+      <c r="AI25" s="2"/>
+      <c r="AJ25" s="2"/>
+      <c r="AK25" s="2"/>
+      <c r="AL25" s="2"/>
+      <c r="AM25" s="3"/>
+    </row>
+    <row r="26" spans="1:39" ht="16.2" thickBot="1">
       <c r="A26" s="2"/>
       <c r="B26" s="29"/>
       <c r="C26" s="29"/>
@@ -2436,16 +2674,24 @@
       <c r="F26" s="27"/>
       <c r="G26" s="6"/>
       <c r="H26" s="6"/>
-      <c r="I26" s="6"/>
-      <c r="J26" s="6"/>
-      <c r="K26" s="6"/>
-      <c r="L26" s="6"/>
+      <c r="I26" s="33" t="s">
+        <v>43</v>
+      </c>
+      <c r="J26" s="35" t="s">
+        <v>22</v>
+      </c>
+      <c r="K26" s="35">
+        <v>10</v>
+      </c>
+      <c r="L26" s="36" t="s">
+        <v>63</v>
+      </c>
       <c r="M26" s="6"/>
       <c r="N26" s="6"/>
-      <c r="O26" s="2"/>
-      <c r="P26" s="2"/>
-      <c r="Q26" s="2"/>
-      <c r="R26" s="2"/>
+      <c r="O26" s="6"/>
+      <c r="P26" s="6"/>
+      <c r="Q26" s="6"/>
+      <c r="R26" s="6"/>
       <c r="S26" s="2"/>
       <c r="T26" s="2"/>
       <c r="U26" s="2"/>
@@ -2462,9 +2708,13 @@
       <c r="AF26" s="2"/>
       <c r="AG26" s="2"/>
       <c r="AH26" s="2"/>
-      <c r="AI26" s="3"/>
-    </row>
-    <row r="27" spans="1:35">
+      <c r="AI26" s="2"/>
+      <c r="AJ26" s="2"/>
+      <c r="AK26" s="2"/>
+      <c r="AL26" s="2"/>
+      <c r="AM26" s="3"/>
+    </row>
+    <row r="27" spans="1:39">
       <c r="A27" s="2"/>
       <c r="B27" s="6"/>
       <c r="C27" s="6"/>
@@ -2472,17 +2722,17 @@
       <c r="E27" s="13"/>
       <c r="F27" s="6"/>
       <c r="G27" s="12"/>
-      <c r="H27" s="6"/>
-      <c r="I27" s="6"/>
-      <c r="J27" s="6"/>
-      <c r="K27" s="6"/>
-      <c r="L27" s="6"/>
+      <c r="H27" s="12"/>
+      <c r="I27" s="29"/>
+      <c r="J27" s="29"/>
+      <c r="K27" s="29"/>
+      <c r="L27" s="29"/>
       <c r="M27" s="6"/>
       <c r="N27" s="6"/>
-      <c r="O27" s="2"/>
-      <c r="P27" s="2"/>
-      <c r="Q27" s="2"/>
-      <c r="R27" s="2"/>
+      <c r="O27" s="6"/>
+      <c r="P27" s="6"/>
+      <c r="Q27" s="6"/>
+      <c r="R27" s="6"/>
       <c r="S27" s="2"/>
       <c r="T27" s="2"/>
       <c r="U27" s="2"/>
@@ -2499,9 +2749,13 @@
       <c r="AF27" s="2"/>
       <c r="AG27" s="2"/>
       <c r="AH27" s="2"/>
-      <c r="AI27" s="3"/>
-    </row>
-    <row r="28" spans="1:35">
+      <c r="AI27" s="2"/>
+      <c r="AJ27" s="2"/>
+      <c r="AK27" s="2"/>
+      <c r="AL27" s="2"/>
+      <c r="AM27" s="3"/>
+    </row>
+    <row r="28" spans="1:39">
       <c r="A28" s="2"/>
       <c r="B28" s="6"/>
       <c r="C28" s="6"/>
@@ -2516,10 +2770,10 @@
       <c r="L28" s="6"/>
       <c r="M28" s="6"/>
       <c r="N28" s="6"/>
-      <c r="O28" s="2"/>
-      <c r="P28" s="2"/>
-      <c r="Q28" s="2"/>
-      <c r="R28" s="2"/>
+      <c r="O28" s="6"/>
+      <c r="P28" s="6"/>
+      <c r="Q28" s="6"/>
+      <c r="R28" s="6"/>
       <c r="S28" s="2"/>
       <c r="T28" s="2"/>
       <c r="U28" s="2"/>
@@ -2536,9 +2790,13 @@
       <c r="AF28" s="2"/>
       <c r="AG28" s="2"/>
       <c r="AH28" s="2"/>
-      <c r="AI28" s="3"/>
-    </row>
-    <row r="29" spans="1:35">
+      <c r="AI28" s="2"/>
+      <c r="AJ28" s="2"/>
+      <c r="AK28" s="2"/>
+      <c r="AL28" s="2"/>
+      <c r="AM28" s="3"/>
+    </row>
+    <row r="29" spans="1:39">
       <c r="A29" s="2"/>
       <c r="B29" s="6"/>
       <c r="C29" s="6"/>
@@ -2553,10 +2811,10 @@
       <c r="L29" s="6"/>
       <c r="M29" s="6"/>
       <c r="N29" s="6"/>
-      <c r="O29" s="2"/>
-      <c r="P29" s="2"/>
-      <c r="Q29" s="2"/>
-      <c r="R29" s="2"/>
+      <c r="O29" s="6"/>
+      <c r="P29" s="6"/>
+      <c r="Q29" s="6"/>
+      <c r="R29" s="6"/>
       <c r="S29" s="2"/>
       <c r="T29" s="2"/>
       <c r="U29" s="2"/>
@@ -2573,9 +2831,13 @@
       <c r="AF29" s="2"/>
       <c r="AG29" s="2"/>
       <c r="AH29" s="2"/>
-      <c r="AI29" s="3"/>
-    </row>
-    <row r="30" spans="1:35">
+      <c r="AI29" s="2"/>
+      <c r="AJ29" s="2"/>
+      <c r="AK29" s="2"/>
+      <c r="AL29" s="2"/>
+      <c r="AM29" s="3"/>
+    </row>
+    <row r="30" spans="1:39">
       <c r="A30" s="2"/>
       <c r="B30" s="2"/>
       <c r="C30" s="2"/>
@@ -2583,13 +2845,13 @@
       <c r="E30" s="2"/>
       <c r="F30" s="2"/>
       <c r="G30" s="2"/>
-      <c r="H30" s="6"/>
-      <c r="I30" s="6"/>
-      <c r="J30" s="6"/>
+      <c r="H30" s="2"/>
+      <c r="I30" s="2"/>
+      <c r="J30" s="2"/>
       <c r="K30" s="2"/>
-      <c r="L30" s="2"/>
-      <c r="M30" s="2"/>
-      <c r="N30" s="2"/>
+      <c r="L30" s="6"/>
+      <c r="M30" s="6"/>
+      <c r="N30" s="6"/>
       <c r="O30" s="2"/>
       <c r="P30" s="2"/>
       <c r="Q30" s="2"/>
@@ -2610,9 +2872,13 @@
       <c r="AF30" s="2"/>
       <c r="AG30" s="2"/>
       <c r="AH30" s="2"/>
-      <c r="AI30" s="3"/>
-    </row>
-    <row r="31" spans="1:35">
+      <c r="AI30" s="2"/>
+      <c r="AJ30" s="2"/>
+      <c r="AK30" s="2"/>
+      <c r="AL30" s="2"/>
+      <c r="AM30" s="3"/>
+    </row>
+    <row r="31" spans="1:39">
       <c r="A31" s="2"/>
       <c r="B31" s="2"/>
       <c r="C31" s="2"/>
@@ -2620,13 +2886,13 @@
       <c r="E31" s="2"/>
       <c r="F31" s="2"/>
       <c r="G31" s="2"/>
-      <c r="H31" s="6"/>
-      <c r="I31" s="6"/>
-      <c r="J31" s="6"/>
+      <c r="H31" s="2"/>
+      <c r="I31" s="2"/>
+      <c r="J31" s="2"/>
       <c r="K31" s="2"/>
-      <c r="L31" s="2"/>
-      <c r="M31" s="2"/>
-      <c r="N31" s="2"/>
+      <c r="L31" s="6"/>
+      <c r="M31" s="6"/>
+      <c r="N31" s="6"/>
       <c r="O31" s="2"/>
       <c r="P31" s="2"/>
       <c r="Q31" s="2"/>
@@ -2647,9 +2913,13 @@
       <c r="AF31" s="2"/>
       <c r="AG31" s="2"/>
       <c r="AH31" s="2"/>
-      <c r="AI31" s="3"/>
-    </row>
-    <row r="32" spans="1:35">
+      <c r="AI31" s="2"/>
+      <c r="AJ31" s="2"/>
+      <c r="AK31" s="2"/>
+      <c r="AL31" s="2"/>
+      <c r="AM31" s="3"/>
+    </row>
+    <row r="32" spans="1:39">
       <c r="A32" s="2"/>
       <c r="B32" s="2"/>
       <c r="C32" s="2"/>
@@ -2657,13 +2927,13 @@
       <c r="E32" s="2"/>
       <c r="F32" s="2"/>
       <c r="G32" s="2"/>
-      <c r="H32" s="6"/>
-      <c r="I32" s="6"/>
-      <c r="J32" s="6"/>
+      <c r="H32" s="2"/>
+      <c r="I32" s="2"/>
+      <c r="J32" s="2"/>
       <c r="K32" s="2"/>
-      <c r="L32" s="2"/>
-      <c r="M32" s="2"/>
-      <c r="N32" s="2"/>
+      <c r="L32" s="6"/>
+      <c r="M32" s="6"/>
+      <c r="N32" s="6"/>
       <c r="O32" s="2"/>
       <c r="P32" s="2"/>
       <c r="Q32" s="2"/>
@@ -2684,9 +2954,13 @@
       <c r="AF32" s="2"/>
       <c r="AG32" s="2"/>
       <c r="AH32" s="2"/>
-      <c r="AI32" s="3"/>
-    </row>
-    <row r="33" spans="1:35">
+      <c r="AI32" s="2"/>
+      <c r="AJ32" s="2"/>
+      <c r="AK32" s="2"/>
+      <c r="AL32" s="2"/>
+      <c r="AM32" s="3"/>
+    </row>
+    <row r="33" spans="1:39">
       <c r="A33" s="2"/>
       <c r="B33" s="2"/>
       <c r="C33" s="2"/>
@@ -2694,13 +2968,13 @@
       <c r="E33" s="2"/>
       <c r="F33" s="2"/>
       <c r="G33" s="2"/>
-      <c r="H33" s="6"/>
-      <c r="I33" s="6"/>
-      <c r="J33" s="6"/>
+      <c r="H33" s="2"/>
+      <c r="I33" s="2"/>
+      <c r="J33" s="2"/>
       <c r="K33" s="2"/>
-      <c r="L33" s="2"/>
-      <c r="M33" s="2"/>
-      <c r="N33" s="2"/>
+      <c r="L33" s="6"/>
+      <c r="M33" s="6"/>
+      <c r="N33" s="6"/>
       <c r="O33" s="2"/>
       <c r="P33" s="2"/>
       <c r="Q33" s="2"/>
@@ -2721,9 +2995,13 @@
       <c r="AF33" s="2"/>
       <c r="AG33" s="2"/>
       <c r="AH33" s="2"/>
-      <c r="AI33" s="3"/>
-    </row>
-    <row r="34" spans="1:35">
+      <c r="AI33" s="2"/>
+      <c r="AJ33" s="2"/>
+      <c r="AK33" s="2"/>
+      <c r="AL33" s="2"/>
+      <c r="AM33" s="3"/>
+    </row>
+    <row r="34" spans="1:39">
       <c r="A34" s="2"/>
       <c r="B34" s="2"/>
       <c r="C34" s="2"/>
@@ -2731,13 +3009,13 @@
       <c r="E34" s="2"/>
       <c r="F34" s="2"/>
       <c r="G34" s="2"/>
-      <c r="H34" s="6"/>
-      <c r="I34" s="6"/>
-      <c r="J34" s="6"/>
+      <c r="H34" s="2"/>
+      <c r="I34" s="2"/>
+      <c r="J34" s="2"/>
       <c r="K34" s="2"/>
-      <c r="L34" s="2"/>
-      <c r="M34" s="2"/>
-      <c r="N34" s="2"/>
+      <c r="L34" s="6"/>
+      <c r="M34" s="6"/>
+      <c r="N34" s="6"/>
       <c r="O34" s="2"/>
       <c r="P34" s="2"/>
       <c r="Q34" s="2"/>
@@ -2758,9 +3036,13 @@
       <c r="AF34" s="2"/>
       <c r="AG34" s="2"/>
       <c r="AH34" s="2"/>
-      <c r="AI34" s="3"/>
-    </row>
-    <row r="35" spans="1:35">
+      <c r="AI34" s="2"/>
+      <c r="AJ34" s="2"/>
+      <c r="AK34" s="2"/>
+      <c r="AL34" s="2"/>
+      <c r="AM34" s="3"/>
+    </row>
+    <row r="35" spans="1:39">
       <c r="A35" s="2"/>
       <c r="B35" s="2"/>
       <c r="C35" s="2"/>
@@ -2768,13 +3050,13 @@
       <c r="E35" s="2"/>
       <c r="F35" s="2"/>
       <c r="G35" s="2"/>
-      <c r="H35" s="6"/>
-      <c r="I35" s="6"/>
-      <c r="J35" s="6"/>
+      <c r="H35" s="2"/>
+      <c r="I35" s="2"/>
+      <c r="J35" s="2"/>
       <c r="K35" s="2"/>
-      <c r="L35" s="2"/>
-      <c r="M35" s="2"/>
-      <c r="N35" s="2"/>
+      <c r="L35" s="6"/>
+      <c r="M35" s="6"/>
+      <c r="N35" s="6"/>
       <c r="O35" s="2"/>
       <c r="P35" s="2"/>
       <c r="Q35" s="2"/>
@@ -2795,9 +3077,13 @@
       <c r="AF35" s="2"/>
       <c r="AG35" s="2"/>
       <c r="AH35" s="2"/>
-      <c r="AI35" s="3"/>
-    </row>
-    <row r="36" spans="1:35">
+      <c r="AI35" s="2"/>
+      <c r="AJ35" s="2"/>
+      <c r="AK35" s="2"/>
+      <c r="AL35" s="2"/>
+      <c r="AM35" s="3"/>
+    </row>
+    <row r="36" spans="1:39">
       <c r="A36" s="2"/>
       <c r="B36" s="2"/>
       <c r="C36" s="2"/>
@@ -2805,13 +3091,13 @@
       <c r="E36" s="2"/>
       <c r="F36" s="2"/>
       <c r="G36" s="2"/>
-      <c r="H36" s="6"/>
-      <c r="I36" s="6"/>
-      <c r="J36" s="6"/>
+      <c r="H36" s="2"/>
+      <c r="I36" s="2"/>
+      <c r="J36" s="2"/>
       <c r="K36" s="2"/>
-      <c r="L36" s="2"/>
-      <c r="M36" s="2"/>
-      <c r="N36" s="2"/>
+      <c r="L36" s="6"/>
+      <c r="M36" s="6"/>
+      <c r="N36" s="6"/>
       <c r="O36" s="2"/>
       <c r="P36" s="2"/>
       <c r="Q36" s="2"/>
@@ -2832,9 +3118,13 @@
       <c r="AF36" s="2"/>
       <c r="AG36" s="2"/>
       <c r="AH36" s="2"/>
-      <c r="AI36" s="3"/>
-    </row>
-    <row r="37" spans="1:35">
+      <c r="AI36" s="2"/>
+      <c r="AJ36" s="2"/>
+      <c r="AK36" s="2"/>
+      <c r="AL36" s="2"/>
+      <c r="AM36" s="3"/>
+    </row>
+    <row r="37" spans="1:39">
       <c r="A37" s="2"/>
       <c r="B37" s="2"/>
       <c r="C37" s="2"/>
@@ -2842,13 +3132,13 @@
       <c r="E37" s="2"/>
       <c r="F37" s="2"/>
       <c r="G37" s="2"/>
-      <c r="H37" s="6"/>
-      <c r="I37" s="6"/>
-      <c r="J37" s="6"/>
+      <c r="H37" s="2"/>
+      <c r="I37" s="2"/>
+      <c r="J37" s="2"/>
       <c r="K37" s="2"/>
-      <c r="L37" s="2"/>
-      <c r="M37" s="2"/>
-      <c r="N37" s="2"/>
+      <c r="L37" s="6"/>
+      <c r="M37" s="6"/>
+      <c r="N37" s="6"/>
       <c r="O37" s="2"/>
       <c r="P37" s="2"/>
       <c r="Q37" s="2"/>
@@ -2869,9 +3159,13 @@
       <c r="AF37" s="2"/>
       <c r="AG37" s="2"/>
       <c r="AH37" s="2"/>
-      <c r="AI37" s="3"/>
-    </row>
-    <row r="38" spans="1:35">
+      <c r="AI37" s="2"/>
+      <c r="AJ37" s="2"/>
+      <c r="AK37" s="2"/>
+      <c r="AL37" s="2"/>
+      <c r="AM37" s="3"/>
+    </row>
+    <row r="38" spans="1:39">
       <c r="A38" s="2"/>
       <c r="B38" s="2"/>
       <c r="C38" s="2"/>
@@ -2879,13 +3173,13 @@
       <c r="E38" s="2"/>
       <c r="F38" s="2"/>
       <c r="G38" s="2"/>
-      <c r="H38" s="6"/>
-      <c r="I38" s="6"/>
-      <c r="J38" s="6"/>
+      <c r="H38" s="2"/>
+      <c r="I38" s="2"/>
+      <c r="J38" s="2"/>
       <c r="K38" s="2"/>
-      <c r="L38" s="2"/>
-      <c r="M38" s="2"/>
-      <c r="N38" s="2"/>
+      <c r="L38" s="6"/>
+      <c r="M38" s="6"/>
+      <c r="N38" s="6"/>
       <c r="O38" s="2"/>
       <c r="P38" s="2"/>
       <c r="Q38" s="2"/>
@@ -2906,9 +3200,13 @@
       <c r="AF38" s="2"/>
       <c r="AG38" s="2"/>
       <c r="AH38" s="2"/>
-      <c r="AI38" s="3"/>
-    </row>
-    <row r="39" spans="1:35">
+      <c r="AI38" s="2"/>
+      <c r="AJ38" s="2"/>
+      <c r="AK38" s="2"/>
+      <c r="AL38" s="2"/>
+      <c r="AM38" s="3"/>
+    </row>
+    <row r="39" spans="1:39">
       <c r="A39" s="2"/>
       <c r="B39" s="2"/>
       <c r="C39" s="2"/>
@@ -2916,13 +3214,13 @@
       <c r="E39" s="2"/>
       <c r="F39" s="2"/>
       <c r="G39" s="2"/>
-      <c r="H39" s="6"/>
-      <c r="I39" s="6"/>
-      <c r="J39" s="6"/>
+      <c r="H39" s="2"/>
+      <c r="I39" s="2"/>
+      <c r="J39" s="2"/>
       <c r="K39" s="2"/>
-      <c r="L39" s="2"/>
-      <c r="M39" s="2"/>
-      <c r="N39" s="2"/>
+      <c r="L39" s="6"/>
+      <c r="M39" s="6"/>
+      <c r="N39" s="6"/>
       <c r="O39" s="2"/>
       <c r="P39" s="2"/>
       <c r="Q39" s="2"/>
@@ -2943,9 +3241,13 @@
       <c r="AF39" s="2"/>
       <c r="AG39" s="2"/>
       <c r="AH39" s="2"/>
-      <c r="AI39" s="3"/>
-    </row>
-    <row r="40" spans="1:35">
+      <c r="AI39" s="2"/>
+      <c r="AJ39" s="2"/>
+      <c r="AK39" s="2"/>
+      <c r="AL39" s="2"/>
+      <c r="AM39" s="3"/>
+    </row>
+    <row r="40" spans="1:39">
       <c r="A40" s="2"/>
       <c r="B40" s="2"/>
       <c r="C40" s="2"/>
@@ -2953,13 +3255,13 @@
       <c r="E40" s="2"/>
       <c r="F40" s="2"/>
       <c r="G40" s="2"/>
-      <c r="H40" s="6"/>
-      <c r="I40" s="6"/>
-      <c r="J40" s="6"/>
+      <c r="H40" s="2"/>
+      <c r="I40" s="2"/>
+      <c r="J40" s="2"/>
       <c r="K40" s="2"/>
-      <c r="L40" s="2"/>
-      <c r="M40" s="2"/>
-      <c r="N40" s="2"/>
+      <c r="L40" s="6"/>
+      <c r="M40" s="6"/>
+      <c r="N40" s="6"/>
       <c r="O40" s="2"/>
       <c r="P40" s="2"/>
       <c r="Q40" s="2"/>
@@ -2980,9 +3282,13 @@
       <c r="AF40" s="2"/>
       <c r="AG40" s="2"/>
       <c r="AH40" s="2"/>
-      <c r="AI40" s="3"/>
-    </row>
-    <row r="41" spans="1:35">
+      <c r="AI40" s="2"/>
+      <c r="AJ40" s="2"/>
+      <c r="AK40" s="2"/>
+      <c r="AL40" s="2"/>
+      <c r="AM40" s="3"/>
+    </row>
+    <row r="41" spans="1:39">
       <c r="A41" s="2"/>
       <c r="B41" s="2"/>
       <c r="C41" s="2"/>
@@ -2990,13 +3296,13 @@
       <c r="E41" s="2"/>
       <c r="F41" s="2"/>
       <c r="G41" s="2"/>
-      <c r="H41" s="6"/>
-      <c r="I41" s="6"/>
-      <c r="J41" s="6"/>
+      <c r="H41" s="2"/>
+      <c r="I41" s="2"/>
+      <c r="J41" s="2"/>
       <c r="K41" s="2"/>
-      <c r="L41" s="2"/>
-      <c r="M41" s="2"/>
-      <c r="N41" s="2"/>
+      <c r="L41" s="6"/>
+      <c r="M41" s="6"/>
+      <c r="N41" s="6"/>
       <c r="O41" s="2"/>
       <c r="P41" s="2"/>
       <c r="Q41" s="2"/>
@@ -3017,9 +3323,13 @@
       <c r="AF41" s="2"/>
       <c r="AG41" s="2"/>
       <c r="AH41" s="2"/>
-      <c r="AI41" s="3"/>
-    </row>
-    <row r="42" spans="1:35">
+      <c r="AI41" s="2"/>
+      <c r="AJ41" s="2"/>
+      <c r="AK41" s="2"/>
+      <c r="AL41" s="2"/>
+      <c r="AM41" s="3"/>
+    </row>
+    <row r="42" spans="1:39">
       <c r="A42" s="2"/>
       <c r="B42" s="2"/>
       <c r="C42" s="2"/>
@@ -3027,13 +3337,13 @@
       <c r="E42" s="2"/>
       <c r="F42" s="2"/>
       <c r="G42" s="2"/>
-      <c r="H42" s="6"/>
-      <c r="I42" s="6"/>
-      <c r="J42" s="6"/>
+      <c r="H42" s="2"/>
+      <c r="I42" s="2"/>
+      <c r="J42" s="2"/>
       <c r="K42" s="2"/>
-      <c r="L42" s="2"/>
-      <c r="M42" s="2"/>
-      <c r="N42" s="2"/>
+      <c r="L42" s="6"/>
+      <c r="M42" s="6"/>
+      <c r="N42" s="6"/>
       <c r="O42" s="2"/>
       <c r="P42" s="2"/>
       <c r="Q42" s="2"/>
@@ -3054,9 +3364,13 @@
       <c r="AF42" s="2"/>
       <c r="AG42" s="2"/>
       <c r="AH42" s="2"/>
-      <c r="AI42" s="3"/>
-    </row>
-    <row r="43" spans="1:35">
+      <c r="AI42" s="2"/>
+      <c r="AJ42" s="2"/>
+      <c r="AK42" s="2"/>
+      <c r="AL42" s="2"/>
+      <c r="AM42" s="3"/>
+    </row>
+    <row r="43" spans="1:39">
       <c r="A43" s="2"/>
       <c r="B43" s="2"/>
       <c r="C43" s="2"/>
@@ -3064,13 +3378,13 @@
       <c r="E43" s="2"/>
       <c r="F43" s="2"/>
       <c r="G43" s="2"/>
-      <c r="H43" s="6"/>
-      <c r="I43" s="6"/>
-      <c r="J43" s="6"/>
+      <c r="H43" s="2"/>
+      <c r="I43" s="2"/>
+      <c r="J43" s="2"/>
       <c r="K43" s="2"/>
-      <c r="L43" s="2"/>
-      <c r="M43" s="2"/>
-      <c r="N43" s="2"/>
+      <c r="L43" s="6"/>
+      <c r="M43" s="6"/>
+      <c r="N43" s="6"/>
       <c r="O43" s="2"/>
       <c r="P43" s="2"/>
       <c r="Q43" s="2"/>
@@ -3091,9 +3405,13 @@
       <c r="AF43" s="2"/>
       <c r="AG43" s="2"/>
       <c r="AH43" s="2"/>
-      <c r="AI43" s="3"/>
-    </row>
-    <row r="44" spans="1:35">
+      <c r="AI43" s="2"/>
+      <c r="AJ43" s="2"/>
+      <c r="AK43" s="2"/>
+      <c r="AL43" s="2"/>
+      <c r="AM43" s="3"/>
+    </row>
+    <row r="44" spans="1:39">
       <c r="A44" s="2"/>
       <c r="B44" s="2"/>
       <c r="C44" s="2"/>
@@ -3101,13 +3419,13 @@
       <c r="E44" s="2"/>
       <c r="F44" s="2"/>
       <c r="G44" s="2"/>
-      <c r="H44" s="6"/>
-      <c r="I44" s="6"/>
-      <c r="J44" s="6"/>
+      <c r="H44" s="2"/>
+      <c r="I44" s="2"/>
+      <c r="J44" s="2"/>
       <c r="K44" s="2"/>
-      <c r="L44" s="2"/>
-      <c r="M44" s="2"/>
-      <c r="N44" s="2"/>
+      <c r="L44" s="6"/>
+      <c r="M44" s="6"/>
+      <c r="N44" s="6"/>
       <c r="O44" s="2"/>
       <c r="P44" s="2"/>
       <c r="Q44" s="2"/>
@@ -3128,9 +3446,13 @@
       <c r="AF44" s="2"/>
       <c r="AG44" s="2"/>
       <c r="AH44" s="2"/>
-      <c r="AI44" s="3"/>
-    </row>
-    <row r="45" spans="1:35">
+      <c r="AI44" s="2"/>
+      <c r="AJ44" s="2"/>
+      <c r="AK44" s="2"/>
+      <c r="AL44" s="2"/>
+      <c r="AM44" s="3"/>
+    </row>
+    <row r="45" spans="1:39">
       <c r="A45" s="2"/>
       <c r="B45" s="2"/>
       <c r="C45" s="2"/>
@@ -3138,13 +3460,13 @@
       <c r="E45" s="2"/>
       <c r="F45" s="2"/>
       <c r="G45" s="2"/>
-      <c r="H45" s="6"/>
-      <c r="I45" s="6"/>
-      <c r="J45" s="6"/>
+      <c r="H45" s="2"/>
+      <c r="I45" s="2"/>
+      <c r="J45" s="2"/>
       <c r="K45" s="2"/>
-      <c r="L45" s="2"/>
-      <c r="M45" s="2"/>
-      <c r="N45" s="2"/>
+      <c r="L45" s="6"/>
+      <c r="M45" s="6"/>
+      <c r="N45" s="6"/>
       <c r="O45" s="2"/>
       <c r="P45" s="2"/>
       <c r="Q45" s="2"/>
@@ -3165,9 +3487,13 @@
       <c r="AF45" s="2"/>
       <c r="AG45" s="2"/>
       <c r="AH45" s="2"/>
-      <c r="AI45" s="3"/>
-    </row>
-    <row r="46" spans="1:35">
+      <c r="AI45" s="2"/>
+      <c r="AJ45" s="2"/>
+      <c r="AK45" s="2"/>
+      <c r="AL45" s="2"/>
+      <c r="AM45" s="3"/>
+    </row>
+    <row r="46" spans="1:39">
       <c r="A46" s="2"/>
       <c r="B46" s="2"/>
       <c r="C46" s="2"/>
@@ -3175,13 +3501,13 @@
       <c r="E46" s="2"/>
       <c r="F46" s="2"/>
       <c r="G46" s="2"/>
-      <c r="H46" s="6"/>
-      <c r="I46" s="6"/>
-      <c r="J46" s="6"/>
+      <c r="H46" s="2"/>
+      <c r="I46" s="2"/>
+      <c r="J46" s="2"/>
       <c r="K46" s="2"/>
-      <c r="L46" s="2"/>
-      <c r="M46" s="2"/>
-      <c r="N46" s="2"/>
+      <c r="L46" s="6"/>
+      <c r="M46" s="6"/>
+      <c r="N46" s="6"/>
       <c r="O46" s="2"/>
       <c r="P46" s="2"/>
       <c r="Q46" s="2"/>
@@ -3202,9 +3528,13 @@
       <c r="AF46" s="2"/>
       <c r="AG46" s="2"/>
       <c r="AH46" s="2"/>
-      <c r="AI46" s="3"/>
-    </row>
-    <row r="47" spans="1:35">
+      <c r="AI46" s="2"/>
+      <c r="AJ46" s="2"/>
+      <c r="AK46" s="2"/>
+      <c r="AL46" s="2"/>
+      <c r="AM46" s="3"/>
+    </row>
+    <row r="47" spans="1:39">
       <c r="A47" s="2"/>
       <c r="B47" s="2"/>
       <c r="C47" s="2"/>
@@ -3212,13 +3542,13 @@
       <c r="E47" s="2"/>
       <c r="F47" s="2"/>
       <c r="G47" s="2"/>
-      <c r="H47" s="6"/>
-      <c r="I47" s="6"/>
-      <c r="J47" s="6"/>
+      <c r="H47" s="2"/>
+      <c r="I47" s="2"/>
+      <c r="J47" s="2"/>
       <c r="K47" s="2"/>
-      <c r="L47" s="2"/>
-      <c r="M47" s="2"/>
-      <c r="N47" s="2"/>
+      <c r="L47" s="6"/>
+      <c r="M47" s="6"/>
+      <c r="N47" s="6"/>
       <c r="O47" s="2"/>
       <c r="P47" s="2"/>
       <c r="Q47" s="2"/>
@@ -3239,9 +3569,13 @@
       <c r="AF47" s="2"/>
       <c r="AG47" s="2"/>
       <c r="AH47" s="2"/>
-      <c r="AI47" s="3"/>
-    </row>
-    <row r="48" spans="1:35">
+      <c r="AI47" s="2"/>
+      <c r="AJ47" s="2"/>
+      <c r="AK47" s="2"/>
+      <c r="AL47" s="2"/>
+      <c r="AM47" s="3"/>
+    </row>
+    <row r="48" spans="1:39">
       <c r="A48" s="2"/>
       <c r="B48" s="2"/>
       <c r="C48" s="2"/>
@@ -3249,13 +3583,13 @@
       <c r="E48" s="2"/>
       <c r="F48" s="2"/>
       <c r="G48" s="2"/>
-      <c r="H48" s="6"/>
-      <c r="I48" s="6"/>
-      <c r="J48" s="6"/>
+      <c r="H48" s="2"/>
+      <c r="I48" s="2"/>
+      <c r="J48" s="2"/>
       <c r="K48" s="2"/>
-      <c r="L48" s="2"/>
-      <c r="M48" s="2"/>
-      <c r="N48" s="2"/>
+      <c r="L48" s="6"/>
+      <c r="M48" s="6"/>
+      <c r="N48" s="6"/>
       <c r="O48" s="2"/>
       <c r="P48" s="2"/>
       <c r="Q48" s="2"/>
@@ -3276,9 +3610,13 @@
       <c r="AF48" s="2"/>
       <c r="AG48" s="2"/>
       <c r="AH48" s="2"/>
-      <c r="AI48" s="3"/>
-    </row>
-    <row r="49" spans="1:35">
+      <c r="AI48" s="2"/>
+      <c r="AJ48" s="2"/>
+      <c r="AK48" s="2"/>
+      <c r="AL48" s="2"/>
+      <c r="AM48" s="3"/>
+    </row>
+    <row r="49" spans="1:39">
       <c r="A49" s="2"/>
       <c r="B49" s="2"/>
       <c r="C49" s="2"/>
@@ -3286,13 +3624,13 @@
       <c r="E49" s="2"/>
       <c r="F49" s="2"/>
       <c r="G49" s="2"/>
-      <c r="H49" s="6"/>
-      <c r="I49" s="6"/>
-      <c r="J49" s="6"/>
+      <c r="H49" s="2"/>
+      <c r="I49" s="2"/>
+      <c r="J49" s="2"/>
       <c r="K49" s="2"/>
-      <c r="L49" s="2"/>
-      <c r="M49" s="2"/>
-      <c r="N49" s="2"/>
+      <c r="L49" s="6"/>
+      <c r="M49" s="6"/>
+      <c r="N49" s="6"/>
       <c r="O49" s="2"/>
       <c r="P49" s="2"/>
       <c r="Q49" s="2"/>
@@ -3313,9 +3651,13 @@
       <c r="AF49" s="2"/>
       <c r="AG49" s="2"/>
       <c r="AH49" s="2"/>
-      <c r="AI49" s="3"/>
-    </row>
-    <row r="50" spans="1:35">
+      <c r="AI49" s="2"/>
+      <c r="AJ49" s="2"/>
+      <c r="AK49" s="2"/>
+      <c r="AL49" s="2"/>
+      <c r="AM49" s="3"/>
+    </row>
+    <row r="50" spans="1:39">
       <c r="A50" s="2"/>
       <c r="B50" s="2"/>
       <c r="C50" s="2"/>
@@ -3323,13 +3665,13 @@
       <c r="E50" s="2"/>
       <c r="F50" s="2"/>
       <c r="G50" s="2"/>
-      <c r="H50" s="6"/>
-      <c r="I50" s="6"/>
-      <c r="J50" s="6"/>
+      <c r="H50" s="2"/>
+      <c r="I50" s="2"/>
+      <c r="J50" s="2"/>
       <c r="K50" s="2"/>
-      <c r="L50" s="2"/>
-      <c r="M50" s="2"/>
-      <c r="N50" s="2"/>
+      <c r="L50" s="6"/>
+      <c r="M50" s="6"/>
+      <c r="N50" s="6"/>
       <c r="O50" s="2"/>
       <c r="P50" s="2"/>
       <c r="Q50" s="2"/>
@@ -3350,9 +3692,13 @@
       <c r="AF50" s="2"/>
       <c r="AG50" s="2"/>
       <c r="AH50" s="2"/>
-      <c r="AI50" s="3"/>
-    </row>
-    <row r="51" spans="1:35">
+      <c r="AI50" s="2"/>
+      <c r="AJ50" s="2"/>
+      <c r="AK50" s="2"/>
+      <c r="AL50" s="2"/>
+      <c r="AM50" s="3"/>
+    </row>
+    <row r="51" spans="1:39">
       <c r="A51" s="2"/>
       <c r="B51" s="2"/>
       <c r="C51" s="2"/>
@@ -3360,13 +3706,13 @@
       <c r="E51" s="2"/>
       <c r="F51" s="2"/>
       <c r="G51" s="2"/>
-      <c r="H51" s="6"/>
-      <c r="I51" s="6"/>
-      <c r="J51" s="6"/>
+      <c r="H51" s="2"/>
+      <c r="I51" s="2"/>
+      <c r="J51" s="2"/>
       <c r="K51" s="2"/>
-      <c r="L51" s="2"/>
-      <c r="M51" s="2"/>
-      <c r="N51" s="2"/>
+      <c r="L51" s="6"/>
+      <c r="M51" s="6"/>
+      <c r="N51" s="6"/>
       <c r="O51" s="2"/>
       <c r="P51" s="2"/>
       <c r="Q51" s="2"/>
@@ -3387,9 +3733,13 @@
       <c r="AF51" s="2"/>
       <c r="AG51" s="2"/>
       <c r="AH51" s="2"/>
-      <c r="AI51" s="3"/>
-    </row>
-    <row r="52" spans="1:35">
+      <c r="AI51" s="2"/>
+      <c r="AJ51" s="2"/>
+      <c r="AK51" s="2"/>
+      <c r="AL51" s="2"/>
+      <c r="AM51" s="3"/>
+    </row>
+    <row r="52" spans="1:39">
       <c r="A52" s="2"/>
       <c r="B52" s="2"/>
       <c r="C52" s="2"/>
@@ -3397,13 +3747,13 @@
       <c r="E52" s="2"/>
       <c r="F52" s="2"/>
       <c r="G52" s="2"/>
-      <c r="H52" s="6"/>
-      <c r="I52" s="6"/>
-      <c r="J52" s="6"/>
+      <c r="H52" s="2"/>
+      <c r="I52" s="2"/>
+      <c r="J52" s="2"/>
       <c r="K52" s="2"/>
-      <c r="L52" s="2"/>
-      <c r="M52" s="2"/>
-      <c r="N52" s="2"/>
+      <c r="L52" s="6"/>
+      <c r="M52" s="6"/>
+      <c r="N52" s="6"/>
       <c r="O52" s="2"/>
       <c r="P52" s="2"/>
       <c r="Q52" s="2"/>
@@ -3424,9 +3774,13 @@
       <c r="AF52" s="2"/>
       <c r="AG52" s="2"/>
       <c r="AH52" s="2"/>
-      <c r="AI52" s="3"/>
-    </row>
-    <row r="53" spans="1:35">
+      <c r="AI52" s="2"/>
+      <c r="AJ52" s="2"/>
+      <c r="AK52" s="2"/>
+      <c r="AL52" s="2"/>
+      <c r="AM52" s="3"/>
+    </row>
+    <row r="53" spans="1:39">
       <c r="A53" s="2"/>
       <c r="B53" s="2"/>
       <c r="C53" s="2"/>
@@ -3434,13 +3788,13 @@
       <c r="E53" s="2"/>
       <c r="F53" s="2"/>
       <c r="G53" s="2"/>
-      <c r="H53" s="6"/>
-      <c r="I53" s="6"/>
-      <c r="J53" s="6"/>
+      <c r="H53" s="2"/>
+      <c r="I53" s="2"/>
+      <c r="J53" s="2"/>
       <c r="K53" s="2"/>
-      <c r="L53" s="2"/>
-      <c r="M53" s="2"/>
-      <c r="N53" s="2"/>
+      <c r="L53" s="6"/>
+      <c r="M53" s="6"/>
+      <c r="N53" s="6"/>
       <c r="O53" s="2"/>
       <c r="P53" s="2"/>
       <c r="Q53" s="2"/>
@@ -3461,9 +3815,13 @@
       <c r="AF53" s="2"/>
       <c r="AG53" s="2"/>
       <c r="AH53" s="2"/>
-      <c r="AI53" s="3"/>
-    </row>
-    <row r="54" spans="1:35">
+      <c r="AI53" s="2"/>
+      <c r="AJ53" s="2"/>
+      <c r="AK53" s="2"/>
+      <c r="AL53" s="2"/>
+      <c r="AM53" s="3"/>
+    </row>
+    <row r="54" spans="1:39">
       <c r="A54" s="2"/>
       <c r="B54" s="2"/>
       <c r="C54" s="2"/>
@@ -3471,13 +3829,13 @@
       <c r="E54" s="2"/>
       <c r="F54" s="2"/>
       <c r="G54" s="2"/>
-      <c r="H54" s="6"/>
-      <c r="I54" s="6"/>
-      <c r="J54" s="6"/>
+      <c r="H54" s="2"/>
+      <c r="I54" s="2"/>
+      <c r="J54" s="2"/>
       <c r="K54" s="2"/>
-      <c r="L54" s="2"/>
-      <c r="M54" s="2"/>
-      <c r="N54" s="2"/>
+      <c r="L54" s="6"/>
+      <c r="M54" s="6"/>
+      <c r="N54" s="6"/>
       <c r="O54" s="2"/>
       <c r="P54" s="2"/>
       <c r="Q54" s="2"/>
@@ -3498,9 +3856,13 @@
       <c r="AF54" s="2"/>
       <c r="AG54" s="2"/>
       <c r="AH54" s="2"/>
-      <c r="AI54" s="3"/>
-    </row>
-    <row r="55" spans="1:35">
+      <c r="AI54" s="2"/>
+      <c r="AJ54" s="2"/>
+      <c r="AK54" s="2"/>
+      <c r="AL54" s="2"/>
+      <c r="AM54" s="3"/>
+    </row>
+    <row r="55" spans="1:39">
       <c r="A55" s="2"/>
       <c r="B55" s="2"/>
       <c r="C55" s="2"/>
@@ -3508,13 +3870,13 @@
       <c r="E55" s="2"/>
       <c r="F55" s="2"/>
       <c r="G55" s="2"/>
-      <c r="H55" s="6"/>
-      <c r="I55" s="6"/>
-      <c r="J55" s="6"/>
+      <c r="H55" s="2"/>
+      <c r="I55" s="2"/>
+      <c r="J55" s="2"/>
       <c r="K55" s="2"/>
-      <c r="L55" s="2"/>
-      <c r="M55" s="2"/>
-      <c r="N55" s="2"/>
+      <c r="L55" s="6"/>
+      <c r="M55" s="6"/>
+      <c r="N55" s="6"/>
       <c r="O55" s="2"/>
       <c r="P55" s="2"/>
       <c r="Q55" s="2"/>
@@ -3535,9 +3897,13 @@
       <c r="AF55" s="2"/>
       <c r="AG55" s="2"/>
       <c r="AH55" s="2"/>
-      <c r="AI55" s="3"/>
-    </row>
-    <row r="56" spans="1:35">
+      <c r="AI55" s="2"/>
+      <c r="AJ55" s="2"/>
+      <c r="AK55" s="2"/>
+      <c r="AL55" s="2"/>
+      <c r="AM55" s="3"/>
+    </row>
+    <row r="56" spans="1:39">
       <c r="A56" s="2"/>
       <c r="B56" s="2"/>
       <c r="C56" s="2"/>
@@ -3545,13 +3911,13 @@
       <c r="E56" s="2"/>
       <c r="F56" s="2"/>
       <c r="G56" s="2"/>
-      <c r="H56" s="6"/>
-      <c r="I56" s="6"/>
-      <c r="J56" s="6"/>
+      <c r="H56" s="2"/>
+      <c r="I56" s="2"/>
+      <c r="J56" s="2"/>
       <c r="K56" s="2"/>
-      <c r="L56" s="2"/>
-      <c r="M56" s="2"/>
-      <c r="N56" s="2"/>
+      <c r="L56" s="6"/>
+      <c r="M56" s="6"/>
+      <c r="N56" s="6"/>
       <c r="O56" s="2"/>
       <c r="P56" s="2"/>
       <c r="Q56" s="2"/>
@@ -3572,9 +3938,13 @@
       <c r="AF56" s="2"/>
       <c r="AG56" s="2"/>
       <c r="AH56" s="2"/>
-      <c r="AI56" s="3"/>
-    </row>
-    <row r="57" spans="1:35">
+      <c r="AI56" s="2"/>
+      <c r="AJ56" s="2"/>
+      <c r="AK56" s="2"/>
+      <c r="AL56" s="2"/>
+      <c r="AM56" s="3"/>
+    </row>
+    <row r="57" spans="1:39">
       <c r="A57" s="2"/>
       <c r="B57" s="2"/>
       <c r="C57" s="2"/>
@@ -3582,13 +3952,13 @@
       <c r="E57" s="2"/>
       <c r="F57" s="2"/>
       <c r="G57" s="2"/>
-      <c r="H57" s="6"/>
-      <c r="I57" s="6"/>
-      <c r="J57" s="6"/>
+      <c r="H57" s="2"/>
+      <c r="I57" s="2"/>
+      <c r="J57" s="2"/>
       <c r="K57" s="2"/>
-      <c r="L57" s="2"/>
-      <c r="M57" s="2"/>
-      <c r="N57" s="2"/>
+      <c r="L57" s="6"/>
+      <c r="M57" s="6"/>
+      <c r="N57" s="6"/>
       <c r="O57" s="2"/>
       <c r="P57" s="2"/>
       <c r="Q57" s="2"/>
@@ -3609,9 +3979,13 @@
       <c r="AF57" s="2"/>
       <c r="AG57" s="2"/>
       <c r="AH57" s="2"/>
-      <c r="AI57" s="3"/>
-    </row>
-    <row r="58" spans="1:35">
+      <c r="AI57" s="2"/>
+      <c r="AJ57" s="2"/>
+      <c r="AK57" s="2"/>
+      <c r="AL57" s="2"/>
+      <c r="AM57" s="3"/>
+    </row>
+    <row r="58" spans="1:39">
       <c r="A58" s="2"/>
       <c r="B58" s="2"/>
       <c r="C58" s="2"/>
@@ -3619,13 +3993,13 @@
       <c r="E58" s="2"/>
       <c r="F58" s="2"/>
       <c r="G58" s="2"/>
-      <c r="H58" s="6"/>
-      <c r="I58" s="6"/>
-      <c r="J58" s="6"/>
+      <c r="H58" s="2"/>
+      <c r="I58" s="2"/>
+      <c r="J58" s="2"/>
       <c r="K58" s="2"/>
-      <c r="L58" s="2"/>
-      <c r="M58" s="2"/>
-      <c r="N58" s="2"/>
+      <c r="L58" s="6"/>
+      <c r="M58" s="6"/>
+      <c r="N58" s="6"/>
       <c r="O58" s="2"/>
       <c r="P58" s="2"/>
       <c r="Q58" s="2"/>
@@ -3646,9 +4020,13 @@
       <c r="AF58" s="2"/>
       <c r="AG58" s="2"/>
       <c r="AH58" s="2"/>
-      <c r="AI58" s="3"/>
-    </row>
-    <row r="59" spans="1:35">
+      <c r="AI58" s="2"/>
+      <c r="AJ58" s="2"/>
+      <c r="AK58" s="2"/>
+      <c r="AL58" s="2"/>
+      <c r="AM58" s="3"/>
+    </row>
+    <row r="59" spans="1:39">
       <c r="A59" s="2"/>
       <c r="B59" s="2"/>
       <c r="C59" s="2"/>
@@ -3656,13 +4034,13 @@
       <c r="E59" s="2"/>
       <c r="F59" s="2"/>
       <c r="G59" s="2"/>
-      <c r="H59" s="6"/>
-      <c r="I59" s="6"/>
-      <c r="J59" s="6"/>
+      <c r="H59" s="2"/>
+      <c r="I59" s="2"/>
+      <c r="J59" s="2"/>
       <c r="K59" s="2"/>
-      <c r="L59" s="2"/>
-      <c r="M59" s="2"/>
-      <c r="N59" s="2"/>
+      <c r="L59" s="6"/>
+      <c r="M59" s="6"/>
+      <c r="N59" s="6"/>
       <c r="O59" s="2"/>
       <c r="P59" s="2"/>
       <c r="Q59" s="2"/>
@@ -3683,9 +4061,13 @@
       <c r="AF59" s="2"/>
       <c r="AG59" s="2"/>
       <c r="AH59" s="2"/>
-      <c r="AI59" s="3"/>
-    </row>
-    <row r="60" spans="1:35">
+      <c r="AI59" s="2"/>
+      <c r="AJ59" s="2"/>
+      <c r="AK59" s="2"/>
+      <c r="AL59" s="2"/>
+      <c r="AM59" s="3"/>
+    </row>
+    <row r="60" spans="1:39">
       <c r="A60" s="2"/>
       <c r="B60" s="2"/>
       <c r="C60" s="2"/>
@@ -3693,13 +4075,13 @@
       <c r="E60" s="2"/>
       <c r="F60" s="2"/>
       <c r="G60" s="2"/>
-      <c r="H60" s="6"/>
-      <c r="I60" s="6"/>
-      <c r="J60" s="6"/>
+      <c r="H60" s="2"/>
+      <c r="I60" s="2"/>
+      <c r="J60" s="2"/>
       <c r="K60" s="2"/>
-      <c r="L60" s="2"/>
-      <c r="M60" s="2"/>
-      <c r="N60" s="2"/>
+      <c r="L60" s="6"/>
+      <c r="M60" s="6"/>
+      <c r="N60" s="6"/>
       <c r="O60" s="2"/>
       <c r="P60" s="2"/>
       <c r="Q60" s="2"/>
@@ -3720,9 +4102,13 @@
       <c r="AF60" s="2"/>
       <c r="AG60" s="2"/>
       <c r="AH60" s="2"/>
-      <c r="AI60" s="3"/>
-    </row>
-    <row r="61" spans="1:35">
+      <c r="AI60" s="2"/>
+      <c r="AJ60" s="2"/>
+      <c r="AK60" s="2"/>
+      <c r="AL60" s="2"/>
+      <c r="AM60" s="3"/>
+    </row>
+    <row r="61" spans="1:39">
       <c r="A61" s="2"/>
       <c r="B61" s="2"/>
       <c r="C61" s="2"/>
@@ -3730,13 +4116,13 @@
       <c r="E61" s="2"/>
       <c r="F61" s="2"/>
       <c r="G61" s="2"/>
-      <c r="H61" s="6"/>
-      <c r="I61" s="6"/>
-      <c r="J61" s="6"/>
+      <c r="H61" s="2"/>
+      <c r="I61" s="2"/>
+      <c r="J61" s="2"/>
       <c r="K61" s="2"/>
-      <c r="L61" s="2"/>
-      <c r="M61" s="2"/>
-      <c r="N61" s="2"/>
+      <c r="L61" s="6"/>
+      <c r="M61" s="6"/>
+      <c r="N61" s="6"/>
       <c r="O61" s="2"/>
       <c r="P61" s="2"/>
       <c r="Q61" s="2"/>
@@ -3757,9 +4143,13 @@
       <c r="AF61" s="2"/>
       <c r="AG61" s="2"/>
       <c r="AH61" s="2"/>
-      <c r="AI61" s="3"/>
-    </row>
-    <row r="62" spans="1:35">
+      <c r="AI61" s="2"/>
+      <c r="AJ61" s="2"/>
+      <c r="AK61" s="2"/>
+      <c r="AL61" s="2"/>
+      <c r="AM61" s="3"/>
+    </row>
+    <row r="62" spans="1:39">
       <c r="A62" s="2"/>
       <c r="B62" s="2"/>
       <c r="C62" s="2"/>
@@ -3767,13 +4157,13 @@
       <c r="E62" s="2"/>
       <c r="F62" s="2"/>
       <c r="G62" s="2"/>
-      <c r="H62" s="6"/>
-      <c r="I62" s="6"/>
-      <c r="J62" s="6"/>
+      <c r="H62" s="2"/>
+      <c r="I62" s="2"/>
+      <c r="J62" s="2"/>
       <c r="K62" s="2"/>
-      <c r="L62" s="2"/>
-      <c r="M62" s="2"/>
-      <c r="N62" s="2"/>
+      <c r="L62" s="6"/>
+      <c r="M62" s="6"/>
+      <c r="N62" s="6"/>
       <c r="O62" s="2"/>
       <c r="P62" s="2"/>
       <c r="Q62" s="2"/>
@@ -3794,9 +4184,13 @@
       <c r="AF62" s="2"/>
       <c r="AG62" s="2"/>
       <c r="AH62" s="2"/>
-      <c r="AI62" s="3"/>
-    </row>
-    <row r="63" spans="1:35">
+      <c r="AI62" s="2"/>
+      <c r="AJ62" s="2"/>
+      <c r="AK62" s="2"/>
+      <c r="AL62" s="2"/>
+      <c r="AM62" s="3"/>
+    </row>
+    <row r="63" spans="1:39">
       <c r="A63" s="2"/>
       <c r="B63" s="2"/>
       <c r="C63" s="2"/>
@@ -3804,13 +4198,13 @@
       <c r="E63" s="2"/>
       <c r="F63" s="2"/>
       <c r="G63" s="2"/>
-      <c r="H63" s="6"/>
-      <c r="I63" s="6"/>
-      <c r="J63" s="6"/>
+      <c r="H63" s="2"/>
+      <c r="I63" s="2"/>
+      <c r="J63" s="2"/>
       <c r="K63" s="2"/>
-      <c r="L63" s="2"/>
-      <c r="M63" s="2"/>
-      <c r="N63" s="2"/>
+      <c r="L63" s="6"/>
+      <c r="M63" s="6"/>
+      <c r="N63" s="6"/>
       <c r="O63" s="2"/>
       <c r="P63" s="2"/>
       <c r="Q63" s="2"/>
@@ -3831,9 +4225,13 @@
       <c r="AF63" s="2"/>
       <c r="AG63" s="2"/>
       <c r="AH63" s="2"/>
-      <c r="AI63" s="3"/>
-    </row>
-    <row r="64" spans="1:35">
+      <c r="AI63" s="2"/>
+      <c r="AJ63" s="2"/>
+      <c r="AK63" s="2"/>
+      <c r="AL63" s="2"/>
+      <c r="AM63" s="3"/>
+    </row>
+    <row r="64" spans="1:39">
       <c r="A64" s="2"/>
       <c r="B64" s="2"/>
       <c r="C64" s="2"/>
@@ -3841,13 +4239,13 @@
       <c r="E64" s="2"/>
       <c r="F64" s="2"/>
       <c r="G64" s="2"/>
-      <c r="H64" s="6"/>
-      <c r="I64" s="6"/>
-      <c r="J64" s="6"/>
+      <c r="H64" s="2"/>
+      <c r="I64" s="2"/>
+      <c r="J64" s="2"/>
       <c r="K64" s="2"/>
-      <c r="L64" s="2"/>
-      <c r="M64" s="2"/>
-      <c r="N64" s="2"/>
+      <c r="L64" s="6"/>
+      <c r="M64" s="6"/>
+      <c r="N64" s="6"/>
       <c r="O64" s="2"/>
       <c r="P64" s="2"/>
       <c r="Q64" s="2"/>
@@ -3868,9 +4266,13 @@
       <c r="AF64" s="2"/>
       <c r="AG64" s="2"/>
       <c r="AH64" s="2"/>
-      <c r="AI64" s="3"/>
-    </row>
-    <row r="65" spans="1:35">
+      <c r="AI64" s="2"/>
+      <c r="AJ64" s="2"/>
+      <c r="AK64" s="2"/>
+      <c r="AL64" s="2"/>
+      <c r="AM64" s="3"/>
+    </row>
+    <row r="65" spans="1:39">
       <c r="A65" s="2"/>
       <c r="B65" s="2"/>
       <c r="C65" s="2"/>
@@ -3878,13 +4280,13 @@
       <c r="E65" s="2"/>
       <c r="F65" s="2"/>
       <c r="G65" s="2"/>
-      <c r="H65" s="6"/>
-      <c r="I65" s="6"/>
-      <c r="J65" s="6"/>
+      <c r="H65" s="2"/>
+      <c r="I65" s="2"/>
+      <c r="J65" s="2"/>
       <c r="K65" s="2"/>
-      <c r="L65" s="2"/>
-      <c r="M65" s="2"/>
-      <c r="N65" s="2"/>
+      <c r="L65" s="6"/>
+      <c r="M65" s="6"/>
+      <c r="N65" s="6"/>
       <c r="O65" s="2"/>
       <c r="P65" s="2"/>
       <c r="Q65" s="2"/>
@@ -3905,9 +4307,13 @@
       <c r="AF65" s="2"/>
       <c r="AG65" s="2"/>
       <c r="AH65" s="2"/>
-      <c r="AI65" s="3"/>
-    </row>
-    <row r="66" spans="1:35">
+      <c r="AI65" s="2"/>
+      <c r="AJ65" s="2"/>
+      <c r="AK65" s="2"/>
+      <c r="AL65" s="2"/>
+      <c r="AM65" s="3"/>
+    </row>
+    <row r="66" spans="1:39">
       <c r="A66" s="2"/>
       <c r="B66" s="2"/>
       <c r="C66" s="2"/>
@@ -3915,13 +4321,13 @@
       <c r="E66" s="2"/>
       <c r="F66" s="2"/>
       <c r="G66" s="2"/>
-      <c r="H66" s="6"/>
-      <c r="I66" s="6"/>
-      <c r="J66" s="6"/>
+      <c r="H66" s="2"/>
+      <c r="I66" s="2"/>
+      <c r="J66" s="2"/>
       <c r="K66" s="2"/>
-      <c r="L66" s="2"/>
-      <c r="M66" s="2"/>
-      <c r="N66" s="2"/>
+      <c r="L66" s="6"/>
+      <c r="M66" s="6"/>
+      <c r="N66" s="6"/>
       <c r="O66" s="2"/>
       <c r="P66" s="2"/>
       <c r="Q66" s="2"/>
@@ -3942,9 +4348,13 @@
       <c r="AF66" s="2"/>
       <c r="AG66" s="2"/>
       <c r="AH66" s="2"/>
-      <c r="AI66" s="3"/>
-    </row>
-    <row r="67" spans="1:35">
+      <c r="AI66" s="2"/>
+      <c r="AJ66" s="2"/>
+      <c r="AK66" s="2"/>
+      <c r="AL66" s="2"/>
+      <c r="AM66" s="3"/>
+    </row>
+    <row r="67" spans="1:39">
       <c r="A67" s="2"/>
       <c r="B67" s="2"/>
       <c r="C67" s="2"/>
@@ -3952,13 +4362,13 @@
       <c r="E67" s="2"/>
       <c r="F67" s="2"/>
       <c r="G67" s="2"/>
-      <c r="H67" s="6"/>
-      <c r="I67" s="6"/>
-      <c r="J67" s="6"/>
+      <c r="H67" s="2"/>
+      <c r="I67" s="2"/>
+      <c r="J67" s="2"/>
       <c r="K67" s="2"/>
-      <c r="L67" s="2"/>
-      <c r="M67" s="2"/>
-      <c r="N67" s="2"/>
+      <c r="L67" s="6"/>
+      <c r="M67" s="6"/>
+      <c r="N67" s="6"/>
       <c r="O67" s="2"/>
       <c r="P67" s="2"/>
       <c r="Q67" s="2"/>
@@ -3979,9 +4389,13 @@
       <c r="AF67" s="2"/>
       <c r="AG67" s="2"/>
       <c r="AH67" s="2"/>
-      <c r="AI67" s="3"/>
-    </row>
-    <row r="68" spans="1:35">
+      <c r="AI67" s="2"/>
+      <c r="AJ67" s="2"/>
+      <c r="AK67" s="2"/>
+      <c r="AL67" s="2"/>
+      <c r="AM67" s="3"/>
+    </row>
+    <row r="68" spans="1:39">
       <c r="A68" s="2"/>
       <c r="B68" s="2"/>
       <c r="C68" s="2"/>
@@ -3989,13 +4403,13 @@
       <c r="E68" s="2"/>
       <c r="F68" s="2"/>
       <c r="G68" s="2"/>
-      <c r="H68" s="6"/>
-      <c r="I68" s="6"/>
-      <c r="J68" s="6"/>
+      <c r="H68" s="2"/>
+      <c r="I68" s="2"/>
+      <c r="J68" s="2"/>
       <c r="K68" s="2"/>
-      <c r="L68" s="2"/>
-      <c r="M68" s="2"/>
-      <c r="N68" s="2"/>
+      <c r="L68" s="6"/>
+      <c r="M68" s="6"/>
+      <c r="N68" s="6"/>
       <c r="O68" s="2"/>
       <c r="P68" s="2"/>
       <c r="Q68" s="2"/>
@@ -4016,9 +4430,13 @@
       <c r="AF68" s="2"/>
       <c r="AG68" s="2"/>
       <c r="AH68" s="2"/>
-      <c r="AI68" s="3"/>
-    </row>
-    <row r="69" spans="1:35">
+      <c r="AI68" s="2"/>
+      <c r="AJ68" s="2"/>
+      <c r="AK68" s="2"/>
+      <c r="AL68" s="2"/>
+      <c r="AM68" s="3"/>
+    </row>
+    <row r="69" spans="1:39">
       <c r="A69" s="2"/>
       <c r="B69" s="2"/>
       <c r="C69" s="2"/>
@@ -4026,13 +4444,13 @@
       <c r="E69" s="2"/>
       <c r="F69" s="2"/>
       <c r="G69" s="2"/>
-      <c r="H69" s="6"/>
-      <c r="I69" s="6"/>
-      <c r="J69" s="6"/>
+      <c r="H69" s="2"/>
+      <c r="I69" s="2"/>
+      <c r="J69" s="2"/>
       <c r="K69" s="2"/>
-      <c r="L69" s="2"/>
-      <c r="M69" s="2"/>
-      <c r="N69" s="2"/>
+      <c r="L69" s="6"/>
+      <c r="M69" s="6"/>
+      <c r="N69" s="6"/>
       <c r="O69" s="2"/>
       <c r="P69" s="2"/>
       <c r="Q69" s="2"/>
@@ -4053,9 +4471,13 @@
       <c r="AF69" s="2"/>
       <c r="AG69" s="2"/>
       <c r="AH69" s="2"/>
-      <c r="AI69" s="3"/>
-    </row>
-    <row r="70" spans="1:35">
+      <c r="AI69" s="2"/>
+      <c r="AJ69" s="2"/>
+      <c r="AK69" s="2"/>
+      <c r="AL69" s="2"/>
+      <c r="AM69" s="3"/>
+    </row>
+    <row r="70" spans="1:39">
       <c r="A70" s="2"/>
       <c r="B70" s="2"/>
       <c r="C70" s="2"/>
@@ -4063,13 +4485,13 @@
       <c r="E70" s="2"/>
       <c r="F70" s="2"/>
       <c r="G70" s="2"/>
-      <c r="H70" s="6"/>
-      <c r="I70" s="6"/>
-      <c r="J70" s="6"/>
+      <c r="H70" s="2"/>
+      <c r="I70" s="2"/>
+      <c r="J70" s="2"/>
       <c r="K70" s="2"/>
-      <c r="L70" s="2"/>
-      <c r="M70" s="2"/>
-      <c r="N70" s="2"/>
+      <c r="L70" s="6"/>
+      <c r="M70" s="6"/>
+      <c r="N70" s="6"/>
       <c r="O70" s="2"/>
       <c r="P70" s="2"/>
       <c r="Q70" s="2"/>
@@ -4090,9 +4512,13 @@
       <c r="AF70" s="2"/>
       <c r="AG70" s="2"/>
       <c r="AH70" s="2"/>
-      <c r="AI70" s="3"/>
-    </row>
-    <row r="71" spans="1:35">
+      <c r="AI70" s="2"/>
+      <c r="AJ70" s="2"/>
+      <c r="AK70" s="2"/>
+      <c r="AL70" s="2"/>
+      <c r="AM70" s="3"/>
+    </row>
+    <row r="71" spans="1:39">
       <c r="A71" s="2"/>
       <c r="B71" s="2"/>
       <c r="C71" s="2"/>
@@ -4100,13 +4526,13 @@
       <c r="E71" s="2"/>
       <c r="F71" s="2"/>
       <c r="G71" s="2"/>
-      <c r="H71" s="6"/>
-      <c r="I71" s="6"/>
-      <c r="J71" s="6"/>
+      <c r="H71" s="2"/>
+      <c r="I71" s="2"/>
+      <c r="J71" s="2"/>
       <c r="K71" s="2"/>
-      <c r="L71" s="2"/>
-      <c r="M71" s="2"/>
-      <c r="N71" s="2"/>
+      <c r="L71" s="6"/>
+      <c r="M71" s="6"/>
+      <c r="N71" s="6"/>
       <c r="O71" s="2"/>
       <c r="P71" s="2"/>
       <c r="Q71" s="2"/>
@@ -4127,9 +4553,13 @@
       <c r="AF71" s="2"/>
       <c r="AG71" s="2"/>
       <c r="AH71" s="2"/>
-      <c r="AI71" s="3"/>
-    </row>
-    <row r="72" spans="1:35">
+      <c r="AI71" s="2"/>
+      <c r="AJ71" s="2"/>
+      <c r="AK71" s="2"/>
+      <c r="AL71" s="2"/>
+      <c r="AM71" s="3"/>
+    </row>
+    <row r="72" spans="1:39">
       <c r="A72" s="2"/>
       <c r="B72" s="2"/>
       <c r="C72" s="2"/>
@@ -4137,13 +4567,13 @@
       <c r="E72" s="2"/>
       <c r="F72" s="2"/>
       <c r="G72" s="2"/>
-      <c r="H72" s="6"/>
-      <c r="I72" s="6"/>
-      <c r="J72" s="6"/>
+      <c r="H72" s="2"/>
+      <c r="I72" s="2"/>
+      <c r="J72" s="2"/>
       <c r="K72" s="2"/>
-      <c r="L72" s="2"/>
-      <c r="M72" s="2"/>
-      <c r="N72" s="2"/>
+      <c r="L72" s="6"/>
+      <c r="M72" s="6"/>
+      <c r="N72" s="6"/>
       <c r="O72" s="2"/>
       <c r="P72" s="2"/>
       <c r="Q72" s="2"/>
@@ -4164,9 +4594,13 @@
       <c r="AF72" s="2"/>
       <c r="AG72" s="2"/>
       <c r="AH72" s="2"/>
-      <c r="AI72" s="3"/>
-    </row>
-    <row r="73" spans="1:35">
+      <c r="AI72" s="2"/>
+      <c r="AJ72" s="2"/>
+      <c r="AK72" s="2"/>
+      <c r="AL72" s="2"/>
+      <c r="AM72" s="3"/>
+    </row>
+    <row r="73" spans="1:39">
       <c r="A73" s="2"/>
       <c r="B73" s="2"/>
       <c r="C73" s="2"/>
@@ -4174,13 +4608,13 @@
       <c r="E73" s="2"/>
       <c r="F73" s="2"/>
       <c r="G73" s="2"/>
-      <c r="H73" s="6"/>
-      <c r="I73" s="6"/>
-      <c r="J73" s="6"/>
+      <c r="H73" s="2"/>
+      <c r="I73" s="2"/>
+      <c r="J73" s="2"/>
       <c r="K73" s="2"/>
-      <c r="L73" s="2"/>
-      <c r="M73" s="2"/>
-      <c r="N73" s="2"/>
+      <c r="L73" s="6"/>
+      <c r="M73" s="6"/>
+      <c r="N73" s="6"/>
       <c r="O73" s="2"/>
       <c r="P73" s="2"/>
       <c r="Q73" s="2"/>
@@ -4201,9 +4635,13 @@
       <c r="AF73" s="2"/>
       <c r="AG73" s="2"/>
       <c r="AH73" s="2"/>
-      <c r="AI73" s="3"/>
-    </row>
-    <row r="74" spans="1:35">
+      <c r="AI73" s="2"/>
+      <c r="AJ73" s="2"/>
+      <c r="AK73" s="2"/>
+      <c r="AL73" s="2"/>
+      <c r="AM73" s="3"/>
+    </row>
+    <row r="74" spans="1:39">
       <c r="A74" s="2"/>
       <c r="B74" s="2"/>
       <c r="C74" s="2"/>
@@ -4211,13 +4649,13 @@
       <c r="E74" s="2"/>
       <c r="F74" s="2"/>
       <c r="G74" s="2"/>
-      <c r="H74" s="6"/>
-      <c r="I74" s="6"/>
-      <c r="J74" s="6"/>
+      <c r="H74" s="2"/>
+      <c r="I74" s="2"/>
+      <c r="J74" s="2"/>
       <c r="K74" s="2"/>
-      <c r="L74" s="2"/>
-      <c r="M74" s="2"/>
-      <c r="N74" s="2"/>
+      <c r="L74" s="6"/>
+      <c r="M74" s="6"/>
+      <c r="N74" s="6"/>
       <c r="O74" s="2"/>
       <c r="P74" s="2"/>
       <c r="Q74" s="2"/>
@@ -4238,9 +4676,13 @@
       <c r="AF74" s="2"/>
       <c r="AG74" s="2"/>
       <c r="AH74" s="2"/>
-      <c r="AI74" s="3"/>
-    </row>
-    <row r="75" spans="1:35">
+      <c r="AI74" s="2"/>
+      <c r="AJ74" s="2"/>
+      <c r="AK74" s="2"/>
+      <c r="AL74" s="2"/>
+      <c r="AM74" s="3"/>
+    </row>
+    <row r="75" spans="1:39">
       <c r="A75" s="2"/>
       <c r="B75" s="2"/>
       <c r="C75" s="2"/>
@@ -4248,13 +4690,13 @@
       <c r="E75" s="2"/>
       <c r="F75" s="2"/>
       <c r="G75" s="2"/>
-      <c r="H75" s="6"/>
-      <c r="I75" s="6"/>
-      <c r="J75" s="6"/>
+      <c r="H75" s="2"/>
+      <c r="I75" s="2"/>
+      <c r="J75" s="2"/>
       <c r="K75" s="2"/>
-      <c r="L75" s="2"/>
-      <c r="M75" s="2"/>
-      <c r="N75" s="2"/>
+      <c r="L75" s="6"/>
+      <c r="M75" s="6"/>
+      <c r="N75" s="6"/>
       <c r="O75" s="2"/>
       <c r="P75" s="2"/>
       <c r="Q75" s="2"/>
@@ -4275,9 +4717,13 @@
       <c r="AF75" s="2"/>
       <c r="AG75" s="2"/>
       <c r="AH75" s="2"/>
-      <c r="AI75" s="3"/>
-    </row>
-    <row r="76" spans="1:35">
+      <c r="AI75" s="2"/>
+      <c r="AJ75" s="2"/>
+      <c r="AK75" s="2"/>
+      <c r="AL75" s="2"/>
+      <c r="AM75" s="3"/>
+    </row>
+    <row r="76" spans="1:39">
       <c r="A76" s="2"/>
       <c r="B76" s="2"/>
       <c r="C76" s="2"/>
@@ -4285,13 +4731,13 @@
       <c r="E76" s="2"/>
       <c r="F76" s="2"/>
       <c r="G76" s="2"/>
-      <c r="H76" s="6"/>
-      <c r="I76" s="6"/>
-      <c r="J76" s="6"/>
+      <c r="H76" s="2"/>
+      <c r="I76" s="2"/>
+      <c r="J76" s="2"/>
       <c r="K76" s="2"/>
-      <c r="L76" s="2"/>
-      <c r="M76" s="2"/>
-      <c r="N76" s="2"/>
+      <c r="L76" s="6"/>
+      <c r="M76" s="6"/>
+      <c r="N76" s="6"/>
       <c r="O76" s="2"/>
       <c r="P76" s="2"/>
       <c r="Q76" s="2"/>
@@ -4312,9 +4758,13 @@
       <c r="AF76" s="2"/>
       <c r="AG76" s="2"/>
       <c r="AH76" s="2"/>
-      <c r="AI76" s="3"/>
-    </row>
-    <row r="77" spans="1:35">
+      <c r="AI76" s="2"/>
+      <c r="AJ76" s="2"/>
+      <c r="AK76" s="2"/>
+      <c r="AL76" s="2"/>
+      <c r="AM76" s="3"/>
+    </row>
+    <row r="77" spans="1:39">
       <c r="A77" s="2"/>
       <c r="B77" s="2"/>
       <c r="C77" s="2"/>
@@ -4322,13 +4772,13 @@
       <c r="E77" s="2"/>
       <c r="F77" s="2"/>
       <c r="G77" s="2"/>
-      <c r="H77" s="6"/>
-      <c r="I77" s="6"/>
-      <c r="J77" s="6"/>
+      <c r="H77" s="2"/>
+      <c r="I77" s="2"/>
+      <c r="J77" s="2"/>
       <c r="K77" s="2"/>
-      <c r="L77" s="2"/>
-      <c r="M77" s="2"/>
-      <c r="N77" s="2"/>
+      <c r="L77" s="6"/>
+      <c r="M77" s="6"/>
+      <c r="N77" s="6"/>
       <c r="O77" s="2"/>
       <c r="P77" s="2"/>
       <c r="Q77" s="2"/>
@@ -4349,9 +4799,13 @@
       <c r="AF77" s="2"/>
       <c r="AG77" s="2"/>
       <c r="AH77" s="2"/>
-      <c r="AI77" s="3"/>
-    </row>
-    <row r="78" spans="1:35">
+      <c r="AI77" s="2"/>
+      <c r="AJ77" s="2"/>
+      <c r="AK77" s="2"/>
+      <c r="AL77" s="2"/>
+      <c r="AM77" s="3"/>
+    </row>
+    <row r="78" spans="1:39">
       <c r="A78" s="2"/>
       <c r="B78" s="2"/>
       <c r="C78" s="2"/>
@@ -4359,13 +4813,13 @@
       <c r="E78" s="2"/>
       <c r="F78" s="2"/>
       <c r="G78" s="2"/>
-      <c r="H78" s="6"/>
-      <c r="I78" s="6"/>
-      <c r="J78" s="6"/>
+      <c r="H78" s="2"/>
+      <c r="I78" s="2"/>
+      <c r="J78" s="2"/>
       <c r="K78" s="2"/>
-      <c r="L78" s="2"/>
-      <c r="M78" s="2"/>
-      <c r="N78" s="2"/>
+      <c r="L78" s="6"/>
+      <c r="M78" s="6"/>
+      <c r="N78" s="6"/>
       <c r="O78" s="2"/>
       <c r="P78" s="2"/>
       <c r="Q78" s="2"/>
@@ -4386,9 +4840,13 @@
       <c r="AF78" s="2"/>
       <c r="AG78" s="2"/>
       <c r="AH78" s="2"/>
-      <c r="AI78" s="3"/>
-    </row>
-    <row r="79" spans="1:35">
+      <c r="AI78" s="2"/>
+      <c r="AJ78" s="2"/>
+      <c r="AK78" s="2"/>
+      <c r="AL78" s="2"/>
+      <c r="AM78" s="3"/>
+    </row>
+    <row r="79" spans="1:39">
       <c r="A79" s="2"/>
       <c r="B79" s="2"/>
       <c r="C79" s="2"/>
@@ -4396,13 +4854,13 @@
       <c r="E79" s="2"/>
       <c r="F79" s="2"/>
       <c r="G79" s="2"/>
-      <c r="H79" s="6"/>
-      <c r="I79" s="6"/>
-      <c r="J79" s="6"/>
+      <c r="H79" s="2"/>
+      <c r="I79" s="2"/>
+      <c r="J79" s="2"/>
       <c r="K79" s="2"/>
-      <c r="L79" s="2"/>
-      <c r="M79" s="2"/>
-      <c r="N79" s="2"/>
+      <c r="L79" s="6"/>
+      <c r="M79" s="6"/>
+      <c r="N79" s="6"/>
       <c r="O79" s="2"/>
       <c r="P79" s="2"/>
       <c r="Q79" s="2"/>
@@ -4423,9 +4881,13 @@
       <c r="AF79" s="2"/>
       <c r="AG79" s="2"/>
       <c r="AH79" s="2"/>
-      <c r="AI79" s="3"/>
-    </row>
-    <row r="80" spans="1:35">
+      <c r="AI79" s="2"/>
+      <c r="AJ79" s="2"/>
+      <c r="AK79" s="2"/>
+      <c r="AL79" s="2"/>
+      <c r="AM79" s="3"/>
+    </row>
+    <row r="80" spans="1:39">
       <c r="A80" s="2"/>
       <c r="B80" s="2"/>
       <c r="C80" s="2"/>
@@ -4433,13 +4895,13 @@
       <c r="E80" s="2"/>
       <c r="F80" s="2"/>
       <c r="G80" s="2"/>
-      <c r="H80" s="6"/>
-      <c r="I80" s="6"/>
-      <c r="J80" s="6"/>
+      <c r="H80" s="2"/>
+      <c r="I80" s="2"/>
+      <c r="J80" s="2"/>
       <c r="K80" s="2"/>
-      <c r="L80" s="2"/>
-      <c r="M80" s="2"/>
-      <c r="N80" s="2"/>
+      <c r="L80" s="6"/>
+      <c r="M80" s="6"/>
+      <c r="N80" s="6"/>
       <c r="O80" s="2"/>
       <c r="P80" s="2"/>
       <c r="Q80" s="2"/>
@@ -4460,9 +4922,13 @@
       <c r="AF80" s="2"/>
       <c r="AG80" s="2"/>
       <c r="AH80" s="2"/>
-      <c r="AI80" s="3"/>
-    </row>
-    <row r="81" spans="1:35">
+      <c r="AI80" s="2"/>
+      <c r="AJ80" s="2"/>
+      <c r="AK80" s="2"/>
+      <c r="AL80" s="2"/>
+      <c r="AM80" s="3"/>
+    </row>
+    <row r="81" spans="1:39">
       <c r="A81" s="2"/>
       <c r="B81" s="2"/>
       <c r="C81" s="2"/>
@@ -4470,13 +4936,13 @@
       <c r="E81" s="2"/>
       <c r="F81" s="2"/>
       <c r="G81" s="2"/>
-      <c r="H81" s="6"/>
-      <c r="I81" s="6"/>
-      <c r="J81" s="6"/>
+      <c r="H81" s="2"/>
+      <c r="I81" s="2"/>
+      <c r="J81" s="2"/>
       <c r="K81" s="2"/>
-      <c r="L81" s="2"/>
-      <c r="M81" s="2"/>
-      <c r="N81" s="2"/>
+      <c r="L81" s="6"/>
+      <c r="M81" s="6"/>
+      <c r="N81" s="6"/>
       <c r="O81" s="2"/>
       <c r="P81" s="2"/>
       <c r="Q81" s="2"/>
@@ -4497,9 +4963,13 @@
       <c r="AF81" s="2"/>
       <c r="AG81" s="2"/>
       <c r="AH81" s="2"/>
-      <c r="AI81" s="3"/>
-    </row>
-    <row r="82" spans="1:35">
+      <c r="AI81" s="2"/>
+      <c r="AJ81" s="2"/>
+      <c r="AK81" s="2"/>
+      <c r="AL81" s="2"/>
+      <c r="AM81" s="3"/>
+    </row>
+    <row r="82" spans="1:39">
       <c r="A82" s="2"/>
       <c r="B82" s="2"/>
       <c r="C82" s="2"/>
@@ -4507,13 +4977,13 @@
       <c r="E82" s="2"/>
       <c r="F82" s="2"/>
       <c r="G82" s="2"/>
-      <c r="H82" s="6"/>
-      <c r="I82" s="6"/>
-      <c r="J82" s="6"/>
+      <c r="H82" s="2"/>
+      <c r="I82" s="2"/>
+      <c r="J82" s="2"/>
       <c r="K82" s="2"/>
-      <c r="L82" s="2"/>
-      <c r="M82" s="2"/>
-      <c r="N82" s="2"/>
+      <c r="L82" s="6"/>
+      <c r="M82" s="6"/>
+      <c r="N82" s="6"/>
       <c r="O82" s="2"/>
       <c r="P82" s="2"/>
       <c r="Q82" s="2"/>
@@ -4534,9 +5004,13 @@
       <c r="AF82" s="2"/>
       <c r="AG82" s="2"/>
       <c r="AH82" s="2"/>
-      <c r="AI82" s="3"/>
-    </row>
-    <row r="83" spans="1:35">
+      <c r="AI82" s="2"/>
+      <c r="AJ82" s="2"/>
+      <c r="AK82" s="2"/>
+      <c r="AL82" s="2"/>
+      <c r="AM82" s="3"/>
+    </row>
+    <row r="83" spans="1:39">
       <c r="A83" s="2"/>
       <c r="B83" s="2"/>
       <c r="C83" s="2"/>
@@ -4571,9 +5045,13 @@
       <c r="AF83" s="2"/>
       <c r="AG83" s="2"/>
       <c r="AH83" s="2"/>
-      <c r="AI83" s="3"/>
-    </row>
-    <row r="84" spans="1:35">
+      <c r="AI83" s="2"/>
+      <c r="AJ83" s="2"/>
+      <c r="AK83" s="2"/>
+      <c r="AL83" s="2"/>
+      <c r="AM83" s="3"/>
+    </row>
+    <row r="84" spans="1:39">
       <c r="A84" s="2"/>
       <c r="B84" s="2"/>
       <c r="C84" s="2"/>
@@ -4608,9 +5086,13 @@
       <c r="AF84" s="2"/>
       <c r="AG84" s="2"/>
       <c r="AH84" s="2"/>
-      <c r="AI84" s="3"/>
-    </row>
-    <row r="85" spans="1:35">
+      <c r="AI84" s="2"/>
+      <c r="AJ84" s="2"/>
+      <c r="AK84" s="2"/>
+      <c r="AL84" s="2"/>
+      <c r="AM84" s="3"/>
+    </row>
+    <row r="85" spans="1:39">
       <c r="A85" s="2"/>
       <c r="B85" s="2"/>
       <c r="C85" s="2"/>
@@ -4645,9 +5127,13 @@
       <c r="AF85" s="2"/>
       <c r="AG85" s="2"/>
       <c r="AH85" s="2"/>
-      <c r="AI85" s="3"/>
-    </row>
-    <row r="86" spans="1:35">
+      <c r="AI85" s="2"/>
+      <c r="AJ85" s="2"/>
+      <c r="AK85" s="2"/>
+      <c r="AL85" s="2"/>
+      <c r="AM85" s="3"/>
+    </row>
+    <row r="86" spans="1:39">
       <c r="A86" s="2"/>
       <c r="B86" s="2"/>
       <c r="C86" s="2"/>
@@ -4682,9 +5168,13 @@
       <c r="AF86" s="2"/>
       <c r="AG86" s="2"/>
       <c r="AH86" s="2"/>
-      <c r="AI86" s="3"/>
-    </row>
-    <row r="87" spans="1:35">
+      <c r="AI86" s="2"/>
+      <c r="AJ86" s="2"/>
+      <c r="AK86" s="2"/>
+      <c r="AL86" s="2"/>
+      <c r="AM86" s="3"/>
+    </row>
+    <row r="87" spans="1:39">
       <c r="A87" s="2"/>
       <c r="B87" s="2"/>
       <c r="C87" s="2"/>
@@ -4719,9 +5209,13 @@
       <c r="AF87" s="2"/>
       <c r="AG87" s="2"/>
       <c r="AH87" s="2"/>
-      <c r="AI87" s="3"/>
-    </row>
-    <row r="88" spans="1:35">
+      <c r="AI87" s="2"/>
+      <c r="AJ87" s="2"/>
+      <c r="AK87" s="2"/>
+      <c r="AL87" s="2"/>
+      <c r="AM87" s="3"/>
+    </row>
+    <row r="88" spans="1:39">
       <c r="A88" s="2"/>
       <c r="B88" s="2"/>
       <c r="C88" s="2"/>
@@ -4756,9 +5250,13 @@
       <c r="AF88" s="2"/>
       <c r="AG88" s="2"/>
       <c r="AH88" s="2"/>
-      <c r="AI88" s="3"/>
-    </row>
-    <row r="89" spans="1:35">
+      <c r="AI88" s="2"/>
+      <c r="AJ88" s="2"/>
+      <c r="AK88" s="2"/>
+      <c r="AL88" s="2"/>
+      <c r="AM88" s="3"/>
+    </row>
+    <row r="89" spans="1:39">
       <c r="A89" s="2"/>
       <c r="B89" s="2"/>
       <c r="C89" s="2"/>
@@ -4793,9 +5291,13 @@
       <c r="AF89" s="2"/>
       <c r="AG89" s="2"/>
       <c r="AH89" s="2"/>
-      <c r="AI89" s="3"/>
-    </row>
-    <row r="90" spans="1:35">
+      <c r="AI89" s="2"/>
+      <c r="AJ89" s="2"/>
+      <c r="AK89" s="2"/>
+      <c r="AL89" s="2"/>
+      <c r="AM89" s="3"/>
+    </row>
+    <row r="90" spans="1:39">
       <c r="A90" s="2"/>
       <c r="B90" s="2"/>
       <c r="C90" s="2"/>
@@ -4830,9 +5332,13 @@
       <c r="AF90" s="2"/>
       <c r="AG90" s="2"/>
       <c r="AH90" s="2"/>
-      <c r="AI90" s="3"/>
-    </row>
-    <row r="91" spans="1:35">
+      <c r="AI90" s="2"/>
+      <c r="AJ90" s="2"/>
+      <c r="AK90" s="2"/>
+      <c r="AL90" s="2"/>
+      <c r="AM90" s="3"/>
+    </row>
+    <row r="91" spans="1:39">
       <c r="A91" s="3"/>
       <c r="B91" s="3"/>
       <c r="C91" s="3"/>
@@ -4868,6 +5374,10 @@
       <c r="AG91" s="3"/>
       <c r="AH91" s="3"/>
       <c r="AI91" s="3"/>
+      <c r="AJ91" s="3"/>
+      <c r="AK91" s="3"/>
+      <c r="AL91" s="3"/>
+      <c r="AM91" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4879,8 +5389,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:AH208"/>
   <sheetViews>
-    <sheetView zoomScale="83" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="H22" sqref="H22"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6"/>
@@ -4889,6 +5399,7 @@
     <col min="4" max="4" width="17.69921875" style="1" customWidth="1"/>
     <col min="5" max="5" width="14" customWidth="1"/>
     <col min="6" max="6" width="13.796875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.19921875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:34" ht="16.2" thickBot="1">
@@ -12606,8 +13117,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:AL147"/>
   <sheetViews>
-    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection sqref="A1:AL147"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6"/>
